--- a/source_analyses/uk/2012/6_residences/6_residences_source_analysis.xlsx
+++ b/source_analyses/uk/2012/6_residences/6_residences_source_analysis.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="4" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="3" r:id="rId2"/>
     <sheet name="ECUK" sheetId="1" r:id="rId3"/>
-    <sheet name="ODYSSEE" sheetId="5" r:id="rId4"/>
+    <sheet name="Intertek" sheetId="8" r:id="rId4"/>
+    <sheet name="HeatingTechnologies" sheetId="6" r:id="rId5"/>
+    <sheet name="HotWaterTechnologies" sheetId="7" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Final_demand_residences">'[1]Fuel aggregation'!$L$11</definedName>
+    <definedName name="mtoe_to_tj" localSheetId="3">[2]Constants!$C$4</definedName>
     <definedName name="mtoe_to_tj">Constants!$C$4</definedName>
+    <definedName name="twh_to_tj" localSheetId="3">[2]Constants!$C$3</definedName>
     <definedName name="twh_to_tj">Constants!$C$3</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="249">
   <si>
     <t>Return to Title</t>
   </si>
@@ -440,24 +445,6 @@
     <t>This sheet contains all constants required to convert energy units in this workbook</t>
   </si>
   <si>
-    <t>ODYSSEE data base (Date of export: 2014-05-22)</t>
-  </si>
-  <si>
-    <t>Countries :</t>
-  </si>
-  <si>
-    <t>United Kingdom (GB)</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Final consumption of residential for air cooling</t>
-  </si>
-  <si>
-    <t>Mtoe</t>
-  </si>
-  <si>
     <t>Mtoe to TJ conversion</t>
   </si>
   <si>
@@ -613,123 +600,6 @@
     <t>by household domestic appliances 1970 to 2012 (part)</t>
   </si>
   <si>
-    <t>Coal consumption of residential sector</t>
-  </si>
-  <si>
-    <t>Oil consumption of residential sector</t>
-  </si>
-  <si>
-    <t>Gas consumption of residential sector</t>
-  </si>
-  <si>
-    <t>Heat consumption of residential sector</t>
-  </si>
-  <si>
-    <t>Wood consumption of residential sector</t>
-  </si>
-  <si>
-    <t>Electricity consumption of residential</t>
-  </si>
-  <si>
-    <t>Final consumption of residential</t>
-  </si>
-  <si>
-    <t>Final consumption of residential with climatic corrections</t>
-  </si>
-  <si>
-    <t>Coal consumption of residential for space heating</t>
-  </si>
-  <si>
-    <t>Oil consumption of residential for space heating</t>
-  </si>
-  <si>
-    <t>Gas consumption of residential for space heating</t>
-  </si>
-  <si>
-    <t>Heat consumption of residential for space heating</t>
-  </si>
-  <si>
-    <t>Wood consumption of residential for space heating</t>
-  </si>
-  <si>
-    <t>Electricity consumption of residential for space heating</t>
-  </si>
-  <si>
-    <t>Final consumption of residential for space heating</t>
-  </si>
-  <si>
-    <t>Final consumption of residential for space heating with climatic corrections</t>
-  </si>
-  <si>
-    <t>n.a.</t>
-  </si>
-  <si>
-    <t>Coal consumption of households for water heating</t>
-  </si>
-  <si>
-    <t>Oil consumption of households for water heating</t>
-  </si>
-  <si>
-    <t>Gas consumption of households for water heating</t>
-  </si>
-  <si>
-    <t>Heat consumption of households for water heating</t>
-  </si>
-  <si>
-    <t>Wood consumption households for water heating</t>
-  </si>
-  <si>
-    <t>Electricity consumption of households for water heating</t>
-  </si>
-  <si>
-    <t>Final consumption of households for water heating</t>
-  </si>
-  <si>
-    <t>Coal consumption of households for cooking</t>
-  </si>
-  <si>
-    <t>Oil consumption of residential for cooking</t>
-  </si>
-  <si>
-    <t>Gas consumption of residential for cooking</t>
-  </si>
-  <si>
-    <t>Electricity consumption of residential for cooking</t>
-  </si>
-  <si>
-    <t>Wood consumption of residential for cooking</t>
-  </si>
-  <si>
-    <t>Final consumption of residential for cooking</t>
-  </si>
-  <si>
-    <t>Electricity consumption of households for electrical appliances and lighting</t>
-  </si>
-  <si>
-    <t>Electricity consumption for lighting</t>
-  </si>
-  <si>
-    <t>Electricity consumption of captive electricity</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>Electricity consumption of lighting</t>
-  </si>
-  <si>
-    <t>Electricity consumption of cooling</t>
-  </si>
-  <si>
-    <t>Electricity consumption of large appliances (refrigerator, freezer, washing machine, dishwasher, dryer)</t>
-  </si>
-  <si>
-    <t>Electricity consumption of small appliances (calulated by difference)</t>
-  </si>
-  <si>
-    <t>black: original data in Mtoe / TWh</t>
-  </si>
-  <si>
     <t>Useful demand (calculated)</t>
   </si>
   <si>
@@ -767,6 +637,252 @@
   </si>
   <si>
     <t>Assumed that electric stoves are reported under appliances</t>
+  </si>
+  <si>
+    <t>Heating system technology shares</t>
+  </si>
+  <si>
+    <t>Mapped to ETM categories</t>
+  </si>
+  <si>
+    <t>Heating system</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>[%]</t>
+  </si>
+  <si>
+    <t>gas condensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gas condensing ventilations system + heat recovery </t>
+  </si>
+  <si>
+    <t>Gas,c - EHPA</t>
+  </si>
+  <si>
+    <t>gas non-condesning</t>
+  </si>
+  <si>
+    <t>Gas,c,vs(+hr) - EHPA</t>
+  </si>
+  <si>
+    <t>oil condensing</t>
+  </si>
+  <si>
+    <t>Gas,nc - EHPA</t>
+  </si>
+  <si>
+    <t>oil non-condensing</t>
+  </si>
+  <si>
+    <t>Oil,c - EHPA</t>
+  </si>
+  <si>
+    <t>district het</t>
+  </si>
+  <si>
+    <t>Oil,nc - EHPA</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>DH - EHPA</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>Wood,nc - EHPA</t>
+  </si>
+  <si>
+    <t>hp = heat pump, b= brine, w= water, a= air</t>
+  </si>
+  <si>
+    <t>EL - EHPA</t>
+  </si>
+  <si>
+    <t>HP(b-w),el - EHPA</t>
+  </si>
+  <si>
+    <t>HP(w-w),el - EHPA</t>
+  </si>
+  <si>
+    <t>HP(a-w),el - EHPA</t>
+  </si>
+  <si>
+    <t>HP(a-a),el - EHPA</t>
+  </si>
+  <si>
+    <t>HP(a-w),gas - EHPA</t>
+  </si>
+  <si>
+    <t>Total (check)</t>
+  </si>
+  <si>
+    <t>HP(b-w),el,vs(+hr) - EHPA</t>
+  </si>
+  <si>
+    <t>HP(w-w),el,vs(+hr) - EHPA</t>
+  </si>
+  <si>
+    <t>HP(a-w),el,vs(+hr) - EHPA</t>
+  </si>
+  <si>
+    <t>HP(a-a),el,vs(+hr) - EHPA</t>
+  </si>
+  <si>
+    <t>HP(a-w),gas,vs(+hr) - EHPA</t>
+  </si>
+  <si>
+    <t>CHP,gas - EHPA</t>
+  </si>
+  <si>
+    <t>Domestic hot water technology shares</t>
+  </si>
+  <si>
+    <t>Gas,c,st(dhw) - EHPA</t>
+  </si>
+  <si>
+    <t>Gas,nc,st(dhw) - EHPA</t>
+  </si>
+  <si>
+    <t>Oil,c,st(dhw) - EHPA</t>
+  </si>
+  <si>
+    <t>Electricity-driven heat pump (air)</t>
+  </si>
+  <si>
+    <t>Oil,nc,st(dhw) - EHPA</t>
+  </si>
+  <si>
+    <t>Wood,nc,st(dhw) - EHPA</t>
+  </si>
+  <si>
+    <t>HP (a-w),el (Sanitary) -EHPA</t>
+  </si>
+  <si>
+    <t>HP (a-w),el,st(dhw) (Sanitary) -EHPA</t>
+  </si>
+  <si>
+    <t>HP(a-w),gas,st(dhw) - EHPA</t>
+  </si>
+  <si>
+    <t>The following tables are taken from 'R66141 - Household Electricity Survey A study of domestic electrical product usage' published by Intertek.</t>
+  </si>
+  <si>
+    <t>This data supports the findings from the ECUK data. We decided to use the latter as these are more representative for the entire UK.</t>
+  </si>
+  <si>
+    <t>Table 14 Summary of average annual consumption data for all households</t>
+  </si>
+  <si>
+    <t>Appliance type</t>
+  </si>
+  <si>
+    <t>Average annual consumption (kWh/year)</t>
+  </si>
+  <si>
+    <t>kWh/year</t>
+  </si>
+  <si>
+    <t>Upright freezer</t>
+  </si>
+  <si>
+    <t>Chest freezer</t>
+  </si>
+  <si>
+    <t>Washing machine</t>
+  </si>
+  <si>
+    <t>Washer dryer</t>
+  </si>
+  <si>
+    <t>Clothes dryer</t>
+  </si>
+  <si>
+    <t>Oven</t>
+  </si>
+  <si>
+    <t>Cooker</t>
+  </si>
+  <si>
+    <t>Hob</t>
+  </si>
+  <si>
+    <t>Excluded from ETM categories</t>
+  </si>
+  <si>
+    <t>Microwave oven</t>
+  </si>
+  <si>
+    <t>Audiovisual site16</t>
+  </si>
+  <si>
+    <t>CRT television</t>
+  </si>
+  <si>
+    <t>LCD television</t>
+  </si>
+  <si>
+    <t>Plasma television</t>
+  </si>
+  <si>
+    <t>Computer site17</t>
+  </si>
+  <si>
+    <t>Space heating (with additional electric heating)</t>
+  </si>
+  <si>
+    <t>Space heating (with primary electric heating)</t>
+  </si>
+  <si>
+    <t>Water heating (with additional electric heating)</t>
+  </si>
+  <si>
+    <t>Water heating (with primary electric heating)</t>
+  </si>
+  <si>
+    <t>Table 32 Summary of average annual energy consumption of other appliances (part)</t>
+  </si>
+  <si>
+    <t>Appliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average annual energy consumption (kWh) </t>
+  </si>
+  <si>
+    <t>Vacuum cleaner</t>
+  </si>
+  <si>
+    <t>Not specified in ECUK; used the average EU value from JRC study; see /source_analyses/eu/2012/6_residences/6_residences_source_analysis.xlsx</t>
+  </si>
+  <si>
+    <t>Subtracted 5.9% for vacuum cleaners</t>
+  </si>
+  <si>
+    <t>We use the following mapping of ECUK technologies to ETM technologies:</t>
+  </si>
+  <si>
+    <t>incandescent lamps = Standard Light Bulb + Halogen; low energy light bulbs = Fluorescent Strip Lighting + Energy Saving Light Bulb; LED lamps = LED</t>
+  </si>
+  <si>
+    <t>Cooling data taken from ODYSSEE data base (Date of export: 2014-05-22). This data is proprietary.</t>
   </si>
 </sst>
 </file>
@@ -776,12 +892,12 @@
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -924,37 +1040,130 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC3366"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006699"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="32"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF8B8D8E"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color indexed="54"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0039A6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF8B8D8E"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="32"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA2A4A4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF8B8D8E"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF8B8D8E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF7AB800"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFBD0C30"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,8 +1182,212 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="61"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE899CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAA82C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E533"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1339D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E58B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF50458F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="39"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="38"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="63"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="60"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="56"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1285,8 +1698,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="33"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="33"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="43"/>
+      </left>
+      <right style="hair">
+        <color indexed="43"/>
+      </right>
+      <top style="hair">
+        <color indexed="43"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="34"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="47"/>
+      </left>
+      <right style="hair">
+        <color indexed="47"/>
+      </right>
+      <top style="hair">
+        <color indexed="47"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="47"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="13"/>
+      </left>
+      <right style="hair">
+        <color indexed="13"/>
+      </right>
+      <top style="hair">
+        <color indexed="13"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="13"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="33"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="34"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="43"/>
+      </left>
+      <right style="hair">
+        <color indexed="43"/>
+      </right>
+      <top style="hair">
+        <color indexed="43"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="43"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="43"/>
+      </left>
+      <right style="hair">
+        <color indexed="43"/>
+      </right>
+      <top style="hair">
+        <color indexed="43"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="33"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -1351,8 +1897,87 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyAlignment="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="3" fontId="23" fillId="34" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="34" borderId="33" applyNumberFormat="0" applyAlignment="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
+    <xf numFmtId="3" fontId="23" fillId="11" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" applyNumberFormat="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1426,9 +2051,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1499,16 +2121,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="20"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="20" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="20" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="20" applyFont="1"/>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="20" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1632,26 +2246,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1664,10 +2261,112 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="61"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="62"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="62" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="63"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="62" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="64">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="32" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="65"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="31" xfId="66" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="67" applyNumberFormat="1" applyFont="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="34" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="33" xfId="68" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="62" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="34" xfId="69" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="33" xfId="69" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="34" xfId="70" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="33" xfId="70" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="28" fillId="8" borderId="33" xfId="71" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="62" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="120">
+    <cellStyle name="20% - Accent10" xfId="72"/>
+    <cellStyle name="20% - Accent11" xfId="73"/>
+    <cellStyle name="20% - Accent12" xfId="74"/>
+    <cellStyle name="20% - Accent7" xfId="75"/>
+    <cellStyle name="20% - Accent8" xfId="76"/>
+    <cellStyle name="20% - Accent9" xfId="77"/>
+    <cellStyle name="40% - Accent10" xfId="78"/>
+    <cellStyle name="40% - Accent11" xfId="79"/>
+    <cellStyle name="40% - Accent12" xfId="80"/>
+    <cellStyle name="40% - Accent7" xfId="81"/>
+    <cellStyle name="40% - Accent8" xfId="82"/>
+    <cellStyle name="40% - Accent9" xfId="83"/>
+    <cellStyle name="60% - Accent10" xfId="84"/>
+    <cellStyle name="60% - Accent11" xfId="85"/>
+    <cellStyle name="60% - Accent12" xfId="86"/>
+    <cellStyle name="60% - Accent7" xfId="87"/>
+    <cellStyle name="60% - Accent8" xfId="88"/>
+    <cellStyle name="60% - Accent9" xfId="89"/>
+    <cellStyle name="Accent10" xfId="90"/>
+    <cellStyle name="Accent11" xfId="91"/>
+    <cellStyle name="Accent12" xfId="92"/>
+    <cellStyle name="Accent7" xfId="93"/>
+    <cellStyle name="Accent8" xfId="94"/>
+    <cellStyle name="Accent9" xfId="95"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma 2 2" xfId="33"/>
+    <cellStyle name="E_Calculation0" xfId="96"/>
+    <cellStyle name="E_Calculation1" xfId="68"/>
+    <cellStyle name="E_Calculation2" xfId="70"/>
+    <cellStyle name="E_Calculation3" xfId="69"/>
+    <cellStyle name="E_Calculation4" xfId="97"/>
+    <cellStyle name="E_CalculationSum" xfId="71"/>
+    <cellStyle name="E_Check" xfId="98"/>
+    <cellStyle name="E_Comment" xfId="99"/>
+    <cellStyle name="E_Footer" xfId="100"/>
+    <cellStyle name="E_Input1" xfId="101"/>
+    <cellStyle name="E_Input2" xfId="102"/>
+    <cellStyle name="E_InputFixed" xfId="103"/>
+    <cellStyle name="E_InputList" xfId="104"/>
+    <cellStyle name="E_InputWhite" xfId="67"/>
+    <cellStyle name="E_RangeName" xfId="105"/>
+    <cellStyle name="E_SecTitle1" xfId="61"/>
+    <cellStyle name="E_SecTitle2" xfId="63"/>
+    <cellStyle name="E_SecTitle3" xfId="106"/>
+    <cellStyle name="E_Source" xfId="107"/>
+    <cellStyle name="E_TableCell0" xfId="108"/>
+    <cellStyle name="E_TableCell1" xfId="65"/>
+    <cellStyle name="E_TableCell2" xfId="109"/>
+    <cellStyle name="E_TableHeader0" xfId="64"/>
+    <cellStyle name="E_TableHeader1" xfId="110"/>
+    <cellStyle name="E_TableHeader2" xfId="111"/>
+    <cellStyle name="E_VBACommunication" xfId="112"/>
+    <cellStyle name="E_Warning" xfId="113"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -1716,6 +2415,12 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1725,8 +2430,10 @@
     <cellStyle name="Hyperlink 3" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 2 2" xfId="62"/>
     <cellStyle name="Normal_domestic data (PM)" xfId="2"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="66"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1787,21 +2494,21 @@
       <sheetName val="csv_export_to_area_analysis"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
       <sheetData sheetId="15">
         <row r="11">
           <cell r="L11">
@@ -1809,38 +2516,70 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Constants"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="ECUK"/>
+      <sheetName val="ODYSSEE"/>
+      <sheetName val="Intertek"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>3600</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>41868</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2194,7 +2933,7 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C4">
         <v>41868</v>
@@ -2216,10 +2955,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:E89"/>
+  <dimension ref="A2:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58:E62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2228,46 +2967,47 @@
     <col min="2" max="2" width="5.83203125" customWidth="1"/>
     <col min="3" max="3" width="83" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="B2" s="67" t="s">
+    <row r="2" spans="1:7">
+      <c r="B2" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-    </row>
-    <row r="3" spans="1:5" ht="34" customHeight="1">
-      <c r="B3" s="163" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+    </row>
+    <row r="3" spans="1:7" ht="34" customHeight="1">
+      <c r="B3" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1"/>
-    <row r="5" spans="1:5">
-      <c r="A5" s="66"/>
-      <c r="B5" s="63" t="s">
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="194"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="65"/>
+      <c r="B5" s="62" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="34"/>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="63"/>
+    <row r="6" spans="1:7" ht="16" thickBot="1">
+      <c r="A6" s="65"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="63"/>
+    <row r="7" spans="1:7" ht="16" thickBot="1">
+      <c r="A7" s="65"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="27" t="s">
         <v>46</v>
       </c>
@@ -2279,9 +3019,9 @@
         <v>1185122.6373579577</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="63"/>
+    <row r="8" spans="1:7" ht="16" thickBot="1">
+      <c r="A8" s="65"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="27" t="s">
         <v>48</v>
       </c>
@@ -2293,9 +3033,9 @@
         <v>298115.70211395953</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="63"/>
+    <row r="9" spans="1:7" ht="16" thickBot="1">
+      <c r="A9" s="65"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="27" t="s">
         <v>49</v>
       </c>
@@ -2303,13 +3043,15 @@
         <v>47</v>
       </c>
       <c r="E9" s="7">
-        <f>ODYSSEE!H38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" thickBot="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="63"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1">
+      <c r="A10" s="65"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="27" t="s">
         <v>7</v>
       </c>
@@ -2321,9 +3063,9 @@
         <v>49444.646229363912</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" thickBot="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="63"/>
+    <row r="11" spans="1:7" ht="16" thickBot="1">
+      <c r="A11" s="65"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="27" t="s">
         <v>4</v>
       </c>
@@ -2335,9 +3077,9 @@
         <v>58012.41193437382</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" thickBot="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="63"/>
+    <row r="12" spans="1:7" ht="16" thickBot="1">
+      <c r="A12" s="65"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="27" t="s">
         <v>50</v>
       </c>
@@ -2349,158 +3091,194 @@
         <v>216034.40636434499</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="66"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="66"/>
-      <c r="B14" s="63" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="65"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="65"/>
+      <c r="B14" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="43"/>
-    </row>
-    <row r="15" spans="1:5" ht="16" thickBot="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="63"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" ht="16" thickBot="1">
+      <c r="A15" s="65"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:5" ht="16" thickBot="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="63"/>
+    <row r="16" spans="1:7" ht="16" thickBot="1">
+      <c r="A16" s="65"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
+      <c r="E16" s="31">
+        <f>HeatingTechnologies!Q11</f>
+        <v>8.3050780146264547E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="16" thickBot="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="27" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
+      <c r="E17" s="31">
+        <f>HeatingTechnologies!Q12</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="16" thickBot="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="63"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="27" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="31">
+        <f>HeatingTechnologies!Q13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="16" thickBot="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="27" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="E19" s="31">
+        <f>HeatingTechnologies!Q14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="16" thickBot="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="27" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="31">
+        <f>HeatingTechnologies!Q15</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="16" thickBot="1">
-      <c r="A21" s="66"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="27" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="E21" s="31">
+        <f>HeatingTechnologies!Q16</f>
+        <v>7.5892857142857131E-4</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="16" thickBot="1">
-      <c r="A22" s="66"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="27" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="31">
+        <f>HeatingTechnologies!Q17</f>
+        <v>8.2885431400282882E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="16" thickBot="1">
-      <c r="A23" s="66"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="27" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="E23" s="31">
+        <f>HeatingTechnologies!Q18</f>
+        <v>0.15452891717743203</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="16" thickBot="1">
-      <c r="A24" s="66"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+      <c r="E24" s="31">
+        <f>HeatingTechnologies!Q19</f>
+        <v>0.70893358888057845</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="16" thickBot="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="27" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
+      <c r="E25" s="31">
+        <f>HeatingTechnologies!Q20</f>
+        <v>4.3950750020776197E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="16" thickBot="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="63"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="27" t="s">
         <v>62</v>
       </c>
       <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
+      <c r="E26" s="31">
+        <f>HeatingTechnologies!Q21</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="16" thickBot="1">
-      <c r="A27" s="66"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="27" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
+      <c r="E27" s="31">
+        <f>HeatingTechnologies!Q22</f>
+        <v>4.8849206349206348E-4</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="66"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="44"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="66"/>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="38"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="25"/>
       <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" ht="16" thickBot="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="63"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="24" t="s">
         <v>64</v>
       </c>
@@ -2508,588 +3286,612 @@
       <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:5" ht="16" thickBot="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="63"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="31">
+        <f>HotWaterTechnologies!L6</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="16" thickBot="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="27" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="31">
+        <f>HotWaterTechnologies!L7</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="16" thickBot="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="63"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="31">
+        <f>HotWaterTechnologies!L8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="16" thickBot="1">
-      <c r="A34" s="66"/>
-      <c r="B34" s="63"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="27" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="E34" s="31">
+        <f>HotWaterTechnologies!L9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="16" thickBot="1">
-      <c r="A35" s="66"/>
-      <c r="B35" s="63"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="27" t="s">
         <v>66</v>
       </c>
       <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
+      <c r="E35" s="31">
+        <f>HotWaterTechnologies!L10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="16" thickBot="1">
-      <c r="A36" s="66"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="27" t="s">
         <v>67</v>
       </c>
       <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="31">
+        <f>HotWaterTechnologies!L11</f>
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="16" thickBot="1">
-      <c r="A37" s="66"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="27" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
+      <c r="E37" s="31">
+        <f>HotWaterTechnologies!L12</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="16" thickBot="1">
-      <c r="A38" s="66"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
+      <c r="E38" s="31">
+        <f>HotWaterTechnologies!L13</f>
+        <v>0.23200000000000001</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="16" thickBot="1">
-      <c r="A39" s="66"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
+      <c r="E39" s="31">
+        <f>HotWaterTechnologies!L14</f>
+        <v>0.69699999999999995</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="16" thickBot="1">
-      <c r="A40" s="66"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
+      <c r="E40" s="31">
+        <f>HotWaterTechnologies!L15</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="16" thickBot="1">
-      <c r="A41" s="66"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="27" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
+      <c r="E41" s="31">
+        <f>HotWaterTechnologies!L16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="16" thickBot="1">
-      <c r="A42" s="66"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="27" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
+      <c r="E42" s="31">
+        <f>HotWaterTechnologies!L17</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="66"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="45"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="44"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="66"/>
-      <c r="B44" s="63" t="s">
+      <c r="A44" s="65"/>
+      <c r="B44" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="47"/>
     </row>
     <row r="45" spans="1:5" ht="16" thickBot="1">
-      <c r="A45" s="66"/>
-      <c r="B45" s="63"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="48"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="47"/>
     </row>
     <row r="46" spans="1:5" ht="16" thickBot="1">
-      <c r="A46" s="66"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="50"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="1:5" ht="16" thickBot="1">
-      <c r="A47" s="66"/>
-      <c r="B47" s="63"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="50"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
     </row>
     <row r="48" spans="1:5" ht="16" thickBot="1">
-      <c r="A48" s="66"/>
-      <c r="B48" s="63"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="62"/>
       <c r="C48" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="49"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="66"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="45"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="44"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="66"/>
-      <c r="B50" s="63" t="s">
+      <c r="A50" s="65"/>
+      <c r="B50" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="38"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="25"/>
-      <c r="E50" s="48"/>
+      <c r="E50" s="47"/>
     </row>
     <row r="51" spans="1:5" ht="16" thickBot="1">
-      <c r="A51" s="66"/>
-      <c r="B51" s="63"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="24" t="s">
         <v>79</v>
       </c>
       <c r="D51" s="25"/>
-      <c r="E51" s="48"/>
+      <c r="E51" s="47"/>
     </row>
     <row r="52" spans="1:5" ht="16" thickBot="1">
-      <c r="A52" s="66"/>
-      <c r="B52" s="63"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="62"/>
       <c r="C52" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50">
+      <c r="D52" s="48"/>
+      <c r="E52" s="49">
         <f>ECUK!F56</f>
         <v>0.24486162576041723</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16" thickBot="1">
-      <c r="A53" s="66"/>
-      <c r="B53" s="63"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="50">
+      <c r="D53" s="48"/>
+      <c r="E53" s="49">
         <f>ECUK!F57</f>
         <v>0.72637441902729349</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16" thickBot="1">
-      <c r="A54" s="66"/>
-      <c r="B54" s="63"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="62"/>
       <c r="C54" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50">
+      <c r="D54" s="48"/>
+      <c r="E54" s="49">
         <f>ECUK!F58</f>
         <v>2.8763955212289312E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="66"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="45"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="66"/>
-      <c r="B56" s="63" t="s">
+      <c r="A56" s="65"/>
+      <c r="B56" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="38"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="25"/>
-      <c r="E56" s="48"/>
+      <c r="E56" s="47"/>
     </row>
     <row r="57" spans="1:5" ht="16" thickBot="1">
-      <c r="A57" s="66"/>
-      <c r="B57" s="63"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="62"/>
       <c r="C57" s="24" t="s">
         <v>83</v>
       </c>
       <c r="D57" s="25"/>
-      <c r="E57" s="48"/>
+      <c r="E57" s="47"/>
     </row>
     <row r="58" spans="1:5" ht="16" thickBot="1">
-      <c r="A58" s="66"/>
-      <c r="B58" s="63"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="62"/>
       <c r="C58" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="50">
+      <c r="D58" s="48"/>
+      <c r="E58" s="49">
         <f>ECUK!F47</f>
         <v>0.32285844228877292</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16" thickBot="1">
-      <c r="A59" s="66"/>
-      <c r="B59" s="63"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="62"/>
       <c r="C59" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="49"/>
-      <c r="E59" s="50">
+      <c r="D59" s="48"/>
+      <c r="E59" s="49">
         <f>ECUK!F48</f>
         <v>0.19585801916451284</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16" thickBot="1">
-      <c r="A60" s="66"/>
-      <c r="B60" s="63"/>
+      <c r="A60" s="65"/>
+      <c r="B60" s="62"/>
       <c r="C60" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="50">
+      <c r="D60" s="48"/>
+      <c r="E60" s="49">
         <f>ECUK!F49</f>
         <v>0.1991518090538128</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16" thickBot="1">
-      <c r="A61" s="66"/>
-      <c r="B61" s="63"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="62"/>
       <c r="C61" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="50">
+      <c r="D61" s="48"/>
+      <c r="E61" s="49">
         <f>ECUK!F50</f>
         <v>0.2821317294929015</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16" thickBot="1">
-      <c r="A62" s="66"/>
-      <c r="B62" s="63"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="62"/>
       <c r="C62" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50">
+      <c r="D62" s="48"/>
+      <c r="E62" s="49">
         <f>ECUK!F51</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="66"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="45"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="44"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="66"/>
-      <c r="B64" s="63" t="s">
+      <c r="A64" s="65"/>
+      <c r="B64" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="38"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="25"/>
-      <c r="E64" s="48"/>
+      <c r="E64" s="47"/>
     </row>
     <row r="65" spans="1:5" ht="16" thickBot="1">
-      <c r="A65" s="66"/>
-      <c r="B65" s="63"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="62"/>
       <c r="C65" s="24" t="s">
         <v>90</v>
       </c>
       <c r="D65" s="25"/>
-      <c r="E65" s="48"/>
+      <c r="E65" s="47"/>
     </row>
     <row r="66" spans="1:5" ht="16" thickBot="1">
-      <c r="A66" s="66"/>
-      <c r="B66" s="63"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="62"/>
       <c r="C66" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50">
+      <c r="D66" s="48"/>
+      <c r="E66" s="49">
         <f>ECUK!D63</f>
-        <v>4.9631196469125893E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16" thickBot="1">
-      <c r="A67" s="66"/>
-      <c r="B67" s="63"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="62"/>
       <c r="C67" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="49"/>
-      <c r="E67" s="50">
+      <c r="D67" s="48"/>
+      <c r="E67" s="49">
         <f>ECUK!D64</f>
-        <v>0.20182892440600647</v>
+        <v>0.20180000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" thickBot="1">
-      <c r="A68" s="66"/>
-      <c r="B68" s="63"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="62"/>
       <c r="C68" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="50">
+      <c r="D68" s="48"/>
+      <c r="E68" s="49">
         <f>ECUK!D65</f>
-        <v>8.6068140535641977E-2</v>
+        <v>8.6099999999999996E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16" thickBot="1">
-      <c r="A69" s="66"/>
-      <c r="B69" s="63"/>
+      <c r="A69" s="65"/>
+      <c r="B69" s="62"/>
       <c r="C69" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D69" s="49"/>
-      <c r="E69" s="50">
+      <c r="D69" s="48"/>
+      <c r="E69" s="49">
         <f>ECUK!D66</f>
-        <v>8.8159921690292478E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16" thickBot="1">
-      <c r="A70" s="66"/>
-      <c r="B70" s="63"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="62"/>
       <c r="C70" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="50">
+      <c r="D70" s="48"/>
+      <c r="E70" s="49">
         <f>ECUK!D67</f>
-        <v>0.12877281114350195</v>
+        <v>0.1288</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16" thickBot="1">
-      <c r="A71" s="66"/>
-      <c r="B71" s="63"/>
+      <c r="A71" s="65"/>
+      <c r="B71" s="62"/>
       <c r="C71" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50">
+      <c r="D71" s="48"/>
+      <c r="E71" s="49">
         <f>ECUK!D68</f>
-        <v>0.20498172935045861</v>
+        <v>0.2049</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16" thickBot="1">
-      <c r="A72" s="66"/>
-      <c r="B72" s="63"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="62"/>
       <c r="C72" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50">
+      <c r="D72" s="48"/>
+      <c r="E72" s="49">
         <f>ECUK!D69</f>
-        <v>0</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16" thickBot="1">
-      <c r="A73" s="66"/>
-      <c r="B73" s="63"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="62"/>
       <c r="C73" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="49"/>
-      <c r="E73" s="50">
+      <c r="D73" s="48"/>
+      <c r="E73" s="49">
         <f>ECUK!D70</f>
-        <v>0.24055727640497257</v>
+        <v>0.18160000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="66"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="42"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="66"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="54"/>
+      <c r="A75" s="65"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="53"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="66"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="42"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="41"/>
     </row>
     <row r="77" spans="1:5" ht="16" thickBot="1">
-      <c r="A77" s="66"/>
-      <c r="B77" s="63" t="s">
+      <c r="A77" s="65"/>
+      <c r="B77" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="38"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="25"/>
-      <c r="E77" s="39"/>
+      <c r="E77" s="38"/>
     </row>
     <row r="78" spans="1:5" ht="16" thickBot="1">
-      <c r="A78" s="66"/>
-      <c r="B78" s="63"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="62"/>
       <c r="C78" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D78" s="49" t="s">
+      <c r="D78" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E78" s="50"/>
+      <c r="E78" s="49"/>
     </row>
     <row r="79" spans="1:5" ht="16" thickBot="1">
-      <c r="A79" s="66"/>
-      <c r="B79" s="63"/>
+      <c r="A79" s="65"/>
+      <c r="B79" s="62"/>
       <c r="C79" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="49" t="s">
+      <c r="D79" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="50"/>
+      <c r="E79" s="49"/>
     </row>
     <row r="80" spans="1:5" ht="16" thickBot="1">
-      <c r="A80" s="66"/>
-      <c r="B80" s="63"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="62"/>
       <c r="C80" s="36"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="56"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="55"/>
     </row>
     <row r="81" spans="1:5" ht="16" thickBot="1">
-      <c r="A81" s="66"/>
-      <c r="B81" s="63"/>
+      <c r="A81" s="65"/>
+      <c r="B81" s="62"/>
       <c r="C81" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E81" s="50"/>
+      <c r="E81" s="49"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="66"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="38"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="25"/>
-      <c r="E82" s="39"/>
+      <c r="E82" s="38"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="66"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="42"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="41"/>
     </row>
     <row r="84" spans="1:5" ht="16" thickBot="1">
-      <c r="A84" s="66"/>
-      <c r="B84" s="65" t="s">
+      <c r="A84" s="65"/>
+      <c r="B84" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="52"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="58"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="57"/>
     </row>
     <row r="85" spans="1:5" ht="16" thickBot="1">
-      <c r="A85" s="66"/>
-      <c r="B85" s="63"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="62"/>
       <c r="C85" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D85" s="49"/>
-      <c r="E85" s="50"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="49"/>
     </row>
     <row r="86" spans="1:5" ht="16" thickBot="1">
-      <c r="A86" s="66"/>
-      <c r="B86" s="63"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="62"/>
       <c r="C86" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="50"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="49"/>
     </row>
     <row r="87" spans="1:5" ht="16" thickBot="1">
-      <c r="A87" s="66"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="39"/>
+      <c r="A87" s="65"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="38"/>
     </row>
     <row r="88" spans="1:5" ht="17" thickBot="1">
-      <c r="A88" s="66"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="60" t="s">
+      <c r="A88" s="65"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E88" s="61"/>
+      <c r="E88" s="60"/>
     </row>
     <row r="89" spans="1:5" ht="17" thickBot="1">
-      <c r="A89" s="66"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="60" t="s">
+      <c r="A89" s="65"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E89" s="61"/>
+      <c r="E89" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:E3"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Number Range" error="You may only enter positive numbers here. " sqref="E7:E12">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Number Range" error="You may only add positive numbers. _x000d_" sqref="E82:E86 E16:E77">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Number Range" error="You may only  instert a number between 0 and 100%_x000d_" sqref="E78:E81">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3104,9 +3906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AP71"/>
   <sheetViews>
-    <sheetView topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3118,503 +3918,503 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="20">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="69" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="115" t="s">
-        <v>124</v>
+      <c r="B3" s="106" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="116" t="s">
-        <v>125</v>
+      <c r="B4" s="107" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:10" s="1" customFormat="1">
-      <c r="B6" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="125"/>
+      <c r="B6" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" s="1" customFormat="1" ht="16" thickBot="1">
-      <c r="B7" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
+      <c r="B7" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="126" t="s">
+      <c r="J7" s="117" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1">
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="I8" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="J8" s="119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="1" customFormat="1">
+      <c r="B9" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="C9" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="109">
+        <v>262.13777226272742</v>
+      </c>
+      <c r="E9" s="109">
+        <v>26.526284319880745</v>
+      </c>
+      <c r="F9" s="109">
+        <v>7.7510245380495233</v>
+      </c>
+      <c r="G9" s="109">
+        <v>24.401181478774998</v>
+      </c>
+      <c r="H9" s="109">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="I9" s="109">
+        <v>7.7839333480705335</v>
+      </c>
+      <c r="J9" s="138">
+        <v>329.20419594750325</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="1" customFormat="1">
+      <c r="B10" s="120"/>
+      <c r="C10" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="D10" s="109">
+        <v>69.823482864553014</v>
+      </c>
+      <c r="E10" s="109">
+        <v>4.9373488942156118</v>
+      </c>
+      <c r="F10" s="109">
+        <v>0.49073202663676407</v>
+      </c>
+      <c r="G10" s="109">
+        <v>7.5583534684722613</v>
+      </c>
+      <c r="H10" s="137">
+        <v>0</v>
+      </c>
+      <c r="I10" s="137">
+        <v>0</v>
+      </c>
+      <c r="J10" s="138">
+        <v>82.809917253877643</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="1" customFormat="1">
+      <c r="B11" s="120"/>
+      <c r="C11" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="120" t="s">
+      <c r="D11" s="109">
+        <v>7.1188592863873428</v>
+      </c>
+      <c r="E11" s="137">
+        <v>0</v>
+      </c>
+      <c r="F11" s="137">
+        <v>0</v>
+      </c>
+      <c r="G11" s="109">
+        <v>5.8549238906195997</v>
+      </c>
+      <c r="H11" s="137">
+        <v>0</v>
+      </c>
+      <c r="I11" s="137">
+        <v>0</v>
+      </c>
+      <c r="J11" s="138">
+        <v>12.973783177006943</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="1" customFormat="1">
+      <c r="B12" s="120"/>
+      <c r="C12" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="120" t="s">
+      <c r="D12" s="113">
+        <v>339.08011441366773</v>
+      </c>
+      <c r="E12" s="113">
+        <v>31.463633214096358</v>
+      </c>
+      <c r="F12" s="113">
+        <v>8.2417565646862876</v>
+      </c>
+      <c r="G12" s="113">
+        <v>37.814458837866859</v>
+      </c>
+      <c r="H12" s="113">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="I12" s="113">
+        <v>7.7839333480705335</v>
+      </c>
+      <c r="J12" s="122">
+        <v>424.98789637838775</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="1" customFormat="1">
+      <c r="B13" s="120"/>
+      <c r="C13" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="121" t="s">
+      <c r="D13" s="137">
+        <v>0</v>
+      </c>
+      <c r="E13" s="137">
+        <v>0</v>
+      </c>
+      <c r="F13" s="137">
+        <v>0</v>
+      </c>
+      <c r="G13" s="113">
+        <v>76.884956969682705</v>
+      </c>
+      <c r="H13" s="137">
+        <v>0</v>
+      </c>
+      <c r="I13" s="137">
+        <v>0</v>
+      </c>
+      <c r="J13" s="122">
+        <v>76.884956969682705</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="1" customFormat="1" ht="16" thickBot="1">
+      <c r="B14" s="123"/>
+      <c r="C14" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="J8" s="128" t="s">
+      <c r="D14" s="114">
+        <v>339.08011441366773</v>
+      </c>
+      <c r="E14" s="114">
+        <v>31.463633214096358</v>
+      </c>
+      <c r="F14" s="114">
+        <v>8.2417565646862876</v>
+      </c>
+      <c r="G14" s="114">
+        <v>114.69941580754956</v>
+      </c>
+      <c r="H14" s="114">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="I14" s="114">
+        <v>7.7839333480705335</v>
+      </c>
+      <c r="J14" s="139">
+        <v>501.87285334807046</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1">
+      <c r="B15" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="126" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="126" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" s="128" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" s="1" customFormat="1">
-      <c r="B9" s="129" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="130" t="s">
+    <row r="16" spans="2:10" s="1" customFormat="1">
+      <c r="B16" s="129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="118">
-        <v>262.13777226272742</v>
-      </c>
-      <c r="E9" s="118">
-        <v>26.526284319880745</v>
-      </c>
-      <c r="F9" s="118">
-        <v>7.7510245380495233</v>
-      </c>
-      <c r="G9" s="118">
-        <v>24.401181478774998</v>
-      </c>
-      <c r="H9" s="118">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="I9" s="118">
-        <v>7.7839333480705335</v>
-      </c>
-      <c r="J9" s="147">
-        <v>329.20419594750325</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="1" customFormat="1">
-      <c r="B10" s="129"/>
-      <c r="C10" s="130" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="118">
-        <v>69.823482864553014</v>
-      </c>
-      <c r="E10" s="118">
-        <v>4.9373488942156118</v>
-      </c>
-      <c r="F10" s="118">
-        <v>0.49073202663676407</v>
-      </c>
-      <c r="G10" s="118">
-        <v>7.5583534684722613</v>
-      </c>
-      <c r="H10" s="146">
-        <v>0</v>
-      </c>
-      <c r="I10" s="146">
-        <v>0</v>
-      </c>
-      <c r="J10" s="147">
-        <v>82.809917253877643</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="1" customFormat="1">
-      <c r="B11" s="129"/>
-      <c r="C11" s="130" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="118">
-        <v>7.1188592863873428</v>
-      </c>
-      <c r="E11" s="146">
-        <v>0</v>
-      </c>
-      <c r="F11" s="146">
-        <v>0</v>
-      </c>
-      <c r="G11" s="118">
-        <v>5.8549238906195997</v>
-      </c>
-      <c r="H11" s="146">
-        <v>0</v>
-      </c>
-      <c r="I11" s="146">
-        <v>0</v>
-      </c>
-      <c r="J11" s="147">
-        <v>12.973783177006943</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="1" customFormat="1">
-      <c r="B12" s="129"/>
-      <c r="C12" s="122" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="122">
-        <v>339.08011441366773</v>
-      </c>
-      <c r="E12" s="122">
-        <v>31.463633214096358</v>
-      </c>
-      <c r="F12" s="122">
-        <v>8.2417565646862876</v>
-      </c>
-      <c r="G12" s="122">
-        <v>37.814458837866859</v>
-      </c>
-      <c r="H12" s="122">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="I12" s="122">
-        <v>7.7839333480705335</v>
-      </c>
-      <c r="J12" s="131">
-        <v>424.98789637838775</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="1" customFormat="1">
-      <c r="B13" s="129"/>
-      <c r="C13" s="122" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="146">
-        <v>0</v>
-      </c>
-      <c r="E13" s="146">
-        <v>0</v>
-      </c>
-      <c r="F13" s="146">
-        <v>0</v>
-      </c>
-      <c r="G13" s="122">
-        <v>76.884956969682705</v>
-      </c>
-      <c r="H13" s="146">
-        <v>0</v>
-      </c>
-      <c r="I13" s="146">
-        <v>0</v>
-      </c>
-      <c r="J13" s="131">
-        <v>76.884956969682705</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="1" customFormat="1" ht="16" thickBot="1">
-      <c r="B14" s="132"/>
-      <c r="C14" s="122" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="123">
-        <v>339.08011441366773</v>
-      </c>
-      <c r="E14" s="123">
-        <v>31.463633214096358</v>
-      </c>
-      <c r="F14" s="123">
-        <v>8.2417565646862876</v>
-      </c>
-      <c r="G14" s="123">
-        <v>114.69941580754956</v>
-      </c>
-      <c r="H14" s="123">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="I14" s="123">
-        <v>7.7839333480705335</v>
-      </c>
-      <c r="J14" s="148">
-        <v>501.87285334807046</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1">
-      <c r="B15" s="133" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="134" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="135" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="135" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="135" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="135" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="135" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="136" t="s">
-        <v>142</v>
-      </c>
-      <c r="J15" s="137" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="1" customFormat="1">
-      <c r="B16" s="138" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="139" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="142">
+      <c r="D16" s="133">
         <f t="shared" ref="D16:J21" si="0">D9*twh_to_tj</f>
         <v>943695.98014581867</v>
       </c>
-      <c r="E16" s="142">
+      <c r="E16" s="133">
         <f t="shared" si="0"/>
         <v>95494.623551570679</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="133">
         <f t="shared" si="0"/>
         <v>27903.688336978284</v>
       </c>
-      <c r="G16" s="142">
+      <c r="G16" s="133">
         <f t="shared" si="0"/>
         <v>87844.25332358999</v>
       </c>
-      <c r="H16" s="142">
+      <c r="H16" s="133">
         <f t="shared" si="0"/>
         <v>2174.4</v>
       </c>
-      <c r="I16" s="142">
+      <c r="I16" s="133">
         <f t="shared" si="0"/>
         <v>28022.160053053922</v>
       </c>
-      <c r="J16" s="143">
+      <c r="J16" s="134">
         <f t="shared" si="0"/>
         <v>1185135.1054110117</v>
       </c>
     </row>
     <row r="17" spans="2:42" s="1" customFormat="1">
-      <c r="B17" s="138"/>
-      <c r="C17" s="139" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="142">
+      <c r="B17" s="129"/>
+      <c r="C17" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="133">
         <f t="shared" si="0"/>
         <v>251364.53831239085</v>
       </c>
-      <c r="E17" s="142">
+      <c r="E17" s="133">
         <f t="shared" si="0"/>
         <v>17774.456019176203</v>
       </c>
-      <c r="F17" s="142">
+      <c r="F17" s="133">
         <f t="shared" si="0"/>
         <v>1766.6352958923508</v>
       </c>
-      <c r="G17" s="142">
+      <c r="G17" s="133">
         <f t="shared" si="0"/>
         <v>27210.072486500139</v>
       </c>
-      <c r="H17" s="142">
+      <c r="H17" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="142">
+      <c r="I17" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="143">
+      <c r="J17" s="134">
         <f t="shared" si="0"/>
         <v>298115.70211395953</v>
       </c>
     </row>
     <row r="18" spans="2:42" s="1" customFormat="1">
-      <c r="B18" s="138"/>
-      <c r="C18" s="139" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="142">
+      <c r="B18" s="129"/>
+      <c r="C18" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="133">
         <f t="shared" si="0"/>
         <v>25627.893430994434</v>
       </c>
-      <c r="E18" s="142">
+      <c r="E18" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="142">
+      <c r="F18" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="142">
+      <c r="G18" s="133">
         <f t="shared" si="0"/>
         <v>21077.726006230558</v>
       </c>
-      <c r="H18" s="142">
+      <c r="H18" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="142">
+      <c r="I18" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="143">
+      <c r="J18" s="134">
         <f t="shared" si="0"/>
         <v>46705.619437224996</v>
       </c>
     </row>
     <row r="19" spans="2:42" s="1" customFormat="1">
-      <c r="B19" s="138"/>
-      <c r="C19" s="140" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="142">
+      <c r="B19" s="129"/>
+      <c r="C19" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="133">
         <f t="shared" si="0"/>
         <v>1220688.4118892038</v>
       </c>
-      <c r="E19" s="142">
+      <c r="E19" s="133">
         <f t="shared" si="0"/>
         <v>113269.07957074689</v>
       </c>
-      <c r="F19" s="142">
+      <c r="F19" s="133">
         <f t="shared" si="0"/>
         <v>29670.323632870637</v>
       </c>
-      <c r="G19" s="142">
+      <c r="G19" s="133">
         <f t="shared" si="0"/>
         <v>136132.05181632069</v>
       </c>
-      <c r="H19" s="142">
+      <c r="H19" s="133">
         <f t="shared" si="0"/>
         <v>2174.4</v>
       </c>
-      <c r="I19" s="142">
+      <c r="I19" s="133">
         <f t="shared" si="0"/>
         <v>28022.160053053922</v>
       </c>
-      <c r="J19" s="143">
+      <c r="J19" s="134">
         <f t="shared" si="0"/>
         <v>1529956.4269621959</v>
       </c>
     </row>
     <row r="20" spans="2:42" s="1" customFormat="1">
-      <c r="B20" s="138"/>
-      <c r="C20" s="140" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="142">
+      <c r="B20" s="129"/>
+      <c r="C20" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="142">
+      <c r="E20" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="142">
+      <c r="F20" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="142">
+      <c r="G20" s="133">
         <f t="shared" si="0"/>
         <v>276785.84509085777</v>
       </c>
-      <c r="H20" s="142">
+      <c r="H20" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="142">
+      <c r="I20" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="143">
+      <c r="J20" s="134">
         <f t="shared" si="0"/>
         <v>276785.84509085777</v>
       </c>
     </row>
     <row r="21" spans="2:42" s="1" customFormat="1">
-      <c r="B21" s="141"/>
-      <c r="C21" s="140" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="144">
+      <c r="B21" s="132"/>
+      <c r="C21" s="131" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="135">
         <f t="shared" si="0"/>
         <v>1220688.4118892038</v>
       </c>
-      <c r="E21" s="144">
+      <c r="E21" s="135">
         <f t="shared" si="0"/>
         <v>113269.07957074689</v>
       </c>
-      <c r="F21" s="144">
+      <c r="F21" s="135">
         <f t="shared" si="0"/>
         <v>29670.323632870637</v>
       </c>
-      <c r="G21" s="144">
+      <c r="G21" s="135">
         <f t="shared" si="0"/>
         <v>412917.89690717839</v>
       </c>
-      <c r="H21" s="144">
+      <c r="H21" s="135">
         <f t="shared" si="0"/>
         <v>2174.4</v>
       </c>
-      <c r="I21" s="144">
+      <c r="I21" s="135">
         <f t="shared" si="0"/>
         <v>28022.160053053922</v>
       </c>
-      <c r="J21" s="145">
+      <c r="J21" s="136">
         <f t="shared" si="0"/>
         <v>1806742.2720530536</v>
       </c>
     </row>
     <row r="22" spans="2:42" s="1" customFormat="1" ht="32" customHeight="1">
-      <c r="B22" s="117"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
     </row>
     <row r="23" spans="2:42" s="1" customFormat="1">
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
     </row>
     <row r="24" spans="2:42" s="1" customFormat="1" ht="16" thickBot="1">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="79" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2"/>
@@ -3622,12 +4422,12 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="89" t="s">
+      <c r="H24" s="80" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:42" s="1" customFormat="1" ht="16" thickTop="1">
-      <c r="B25" s="90"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="6" t="s">
         <v>2</v>
       </c>
@@ -3643,12 +4443,12 @@
       <c r="G25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="91" t="s">
+      <c r="H25" s="82" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:42" s="1" customFormat="1" ht="19" customHeight="1" thickBot="1">
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="83" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="5">
@@ -3666,135 +4466,135 @@
       <c r="G26" s="5">
         <v>63.150333017081614</v>
       </c>
-      <c r="H26" s="93">
+      <c r="H26" s="84">
         <v>501.86939000000007</v>
       </c>
     </row>
     <row r="27" spans="2:42" ht="16" thickTop="1">
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="96" t="s">
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="87" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:42">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="98">
+      <c r="C28" s="89">
         <f t="shared" ref="C28:H28" si="1">C26*twh_to_tj</f>
         <v>1185122.6373579577</v>
       </c>
-      <c r="D28" s="98">
+      <c r="D28" s="89">
         <f t="shared" si="1"/>
         <v>298115.70211395953</v>
       </c>
-      <c r="E28" s="98">
+      <c r="E28" s="89">
         <f t="shared" si="1"/>
         <v>46705.619437224996</v>
       </c>
-      <c r="F28" s="98">
+      <c r="F28" s="89">
         <f t="shared" si="1"/>
         <v>49444.646229363912</v>
       </c>
-      <c r="G28" s="98">
+      <c r="G28" s="89">
         <f t="shared" si="1"/>
         <v>227341.19886149382</v>
       </c>
-      <c r="H28" s="99">
+      <c r="H28" s="90">
         <f t="shared" si="1"/>
         <v>1806729.8040000002</v>
       </c>
     </row>
     <row r="29" spans="2:42">
-      <c r="B29" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170">
+      <c r="B29" s="153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154">
         <f>E28+AK39</f>
         <v>58012.41193437382</v>
       </c>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170">
+      <c r="F29" s="154"/>
+      <c r="G29" s="154">
         <f>G28-AK39</f>
         <v>216034.40636434499</v>
       </c>
-      <c r="H29" s="170"/>
+      <c r="H29" s="154"/>
     </row>
     <row r="30" spans="2:42">
-      <c r="B30" s="169" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-    </row>
-    <row r="31" spans="2:42" s="84" customFormat="1" ht="33" customHeight="1">
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
+      <c r="B30" s="153" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+    </row>
+    <row r="31" spans="2:42" s="75" customFormat="1" ht="33" customHeight="1">
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="2:42" s="1" customFormat="1">
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="86"/>
-      <c r="Y32" s="86"/>
-      <c r="Z32" s="86"/>
-      <c r="AA32" s="86"/>
-      <c r="AB32" s="86"/>
-      <c r="AC32" s="86"/>
-      <c r="AD32" s="86"/>
-      <c r="AE32" s="86"/>
-      <c r="AF32" s="86"/>
-      <c r="AG32" s="86"/>
-      <c r="AH32" s="86"/>
-      <c r="AI32" s="86"/>
-      <c r="AJ32" s="86"/>
-      <c r="AK32" s="86"/>
-      <c r="AL32" s="86"/>
-      <c r="AM32" s="86"/>
-      <c r="AN32" s="86"/>
-      <c r="AO32" s="86"/>
-      <c r="AP32" s="87"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="77"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="77"/>
+      <c r="AE32" s="77"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="77"/>
+      <c r="AH32" s="77"/>
+      <c r="AI32" s="77"/>
+      <c r="AJ32" s="77"/>
+      <c r="AK32" s="77"/>
+      <c r="AL32" s="77"/>
+      <c r="AM32" s="77"/>
+      <c r="AN32" s="77"/>
+      <c r="AO32" s="77"/>
+      <c r="AP32" s="78"/>
     </row>
     <row r="33" spans="2:42" s="1" customFormat="1" ht="16" thickBot="1">
-      <c r="B33" s="102" t="s">
-        <v>159</v>
+      <c r="B33" s="93" t="s">
+        <v>153</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
@@ -3835,12 +4635,12 @@
       <c r="AM33" s="13"/>
       <c r="AN33" s="13"/>
       <c r="AO33" s="3"/>
-      <c r="AP33" s="89" t="s">
+      <c r="AP33" s="80" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:42" s="1" customFormat="1" ht="17" thickTop="1" thickBot="1">
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="15"/>
@@ -3882,67 +4682,67 @@
       <c r="AM34" s="17"/>
       <c r="AN34" s="17"/>
       <c r="AO34" s="8"/>
-      <c r="AP34" s="104"/>
+      <c r="AP34" s="95"/>
     </row>
     <row r="35" spans="2:42" s="1" customFormat="1" ht="12.75" customHeight="1" thickTop="1">
-      <c r="B35" s="105"/>
-      <c r="C35" s="167" t="s">
+      <c r="B35" s="96"/>
+      <c r="C35" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
       <c r="H35" s="19"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="166" t="s">
+      <c r="J35" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="167"/>
-      <c r="L35" s="167"/>
-      <c r="M35" s="167"/>
-      <c r="N35" s="167"/>
+      <c r="K35" s="196"/>
+      <c r="L35" s="196"/>
+      <c r="M35" s="196"/>
+      <c r="N35" s="196"/>
       <c r="O35" s="9"/>
-      <c r="P35" s="166" t="s">
+      <c r="P35" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="Q35" s="166"/>
-      <c r="R35" s="166"/>
-      <c r="S35" s="166"/>
-      <c r="T35" s="166"/>
+      <c r="Q35" s="195"/>
+      <c r="R35" s="195"/>
+      <c r="S35" s="195"/>
+      <c r="T35" s="195"/>
       <c r="U35" s="9"/>
-      <c r="V35" s="166" t="s">
+      <c r="V35" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="W35" s="166"/>
-      <c r="X35" s="166"/>
-      <c r="Y35" s="166"/>
-      <c r="Z35" s="166"/>
-      <c r="AA35" s="166"/>
+      <c r="W35" s="195"/>
+      <c r="X35" s="195"/>
+      <c r="Y35" s="195"/>
+      <c r="Z35" s="195"/>
+      <c r="AA35" s="195"/>
       <c r="AB35" s="10"/>
-      <c r="AC35" s="166" t="s">
+      <c r="AC35" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="AD35" s="167"/>
-      <c r="AE35" s="167"/>
-      <c r="AF35" s="167"/>
-      <c r="AG35" s="167"/>
-      <c r="AH35" s="168"/>
+      <c r="AD35" s="196"/>
+      <c r="AE35" s="196"/>
+      <c r="AF35" s="196"/>
+      <c r="AG35" s="196"/>
+      <c r="AH35" s="197"/>
       <c r="AI35" s="10"/>
-      <c r="AJ35" s="166" t="s">
+      <c r="AJ35" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="AK35" s="166"/>
-      <c r="AL35" s="166"/>
-      <c r="AM35" s="166"/>
-      <c r="AN35" s="166"/>
+      <c r="AK35" s="195"/>
+      <c r="AL35" s="195"/>
+      <c r="AM35" s="195"/>
+      <c r="AN35" s="195"/>
       <c r="AO35" s="10"/>
-      <c r="AP35" s="106" t="s">
+      <c r="AP35" s="97" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:42" s="1" customFormat="1" ht="45">
-      <c r="B36" s="90"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="20" t="s">
         <v>17</v>
       </c>
@@ -4048,10 +4848,10 @@
         <v>5</v>
       </c>
       <c r="AO36" s="20"/>
-      <c r="AP36" s="107"/>
+      <c r="AP36" s="98"/>
     </row>
     <row r="37" spans="2:42" s="1" customFormat="1" ht="19" customHeight="1" thickBot="1">
-      <c r="B37" s="108">
+      <c r="B37" s="99">
         <v>2012</v>
       </c>
       <c r="C37" s="22">
@@ -4171,620 +4971,634 @@
       <c r="AO37" s="22">
         <v>0</v>
       </c>
-      <c r="AP37" s="109">
+      <c r="AP37" s="100">
         <v>84.228606710083213</v>
       </c>
     </row>
     <row r="38" spans="2:42" ht="16" thickTop="1">
-      <c r="B38" s="110"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="66"/>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="66"/>
-      <c r="AF38" s="66"/>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="66"/>
-      <c r="AI38" s="66"/>
-      <c r="AJ38" s="66"/>
-      <c r="AK38" s="66"/>
-      <c r="AL38" s="66"/>
-      <c r="AM38" s="66"/>
-      <c r="AN38" s="66"/>
-      <c r="AO38" s="66"/>
-      <c r="AP38" s="111" t="s">
+      <c r="B38" s="101"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="65"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+      <c r="AA38" s="65"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="65"/>
+      <c r="AE38" s="65"/>
+      <c r="AF38" s="65"/>
+      <c r="AG38" s="65"/>
+      <c r="AH38" s="65"/>
+      <c r="AI38" s="65"/>
+      <c r="AJ38" s="65"/>
+      <c r="AK38" s="65"/>
+      <c r="AL38" s="65"/>
+      <c r="AM38" s="65"/>
+      <c r="AN38" s="65"/>
+      <c r="AO38" s="65"/>
+      <c r="AP38" s="102" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:42" s="72" customFormat="1">
-      <c r="B39" s="112"/>
-      <c r="C39" s="113">
+    <row r="39" spans="2:42" s="70" customFormat="1">
+      <c r="B39" s="103"/>
+      <c r="C39" s="104">
         <f t="shared" ref="C39:AP39" si="2">C37*twh_to_tj</f>
         <v>5946.7438658657848</v>
       </c>
-      <c r="D39" s="113">
+      <c r="D39" s="104">
         <f t="shared" si="2"/>
         <v>24859.105774586587</v>
       </c>
-      <c r="E39" s="113">
+      <c r="E39" s="104">
         <f t="shared" si="2"/>
         <v>4376.8135836091942</v>
       </c>
-      <c r="F39" s="113">
+      <c r="F39" s="104">
         <f t="shared" si="2"/>
         <v>13900.105934290215</v>
       </c>
-      <c r="G39" s="113">
+      <c r="G39" s="104">
         <f t="shared" si="2"/>
         <v>361.87707101213402</v>
       </c>
-      <c r="H39" s="113">
+      <c r="H39" s="104">
         <f t="shared" si="2"/>
         <v>49444.646229363912</v>
       </c>
-      <c r="I39" s="113">
+      <c r="I39" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="113">
+      <c r="J39" s="104">
         <f t="shared" si="2"/>
         <v>4541.1949386374199</v>
       </c>
-      <c r="K39" s="113">
+      <c r="K39" s="104">
         <f t="shared" si="2"/>
         <v>28494.063902673377</v>
       </c>
-      <c r="L39" s="113">
+      <c r="L39" s="104">
         <f t="shared" si="2"/>
         <v>6937.5951424776949</v>
       </c>
-      <c r="M39" s="113">
+      <c r="M39" s="104">
         <f t="shared" si="2"/>
         <v>8964.9172293675256</v>
       </c>
-      <c r="N39" s="113">
+      <c r="N39" s="104">
         <f t="shared" si="2"/>
         <v>48937.771213156011</v>
       </c>
-      <c r="O39" s="113">
+      <c r="O39" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P39" s="113">
+      <c r="P39" s="104">
         <f t="shared" si="2"/>
         <v>16503.806288405631</v>
       </c>
-      <c r="Q39" s="113">
+      <c r="Q39" s="104">
         <f t="shared" si="2"/>
         <v>8730.5375190791237</v>
       </c>
-      <c r="R39" s="113">
+      <c r="R39" s="104">
         <f t="shared" si="2"/>
         <v>12034.152909398335</v>
       </c>
-      <c r="S39" s="113">
+      <c r="S39" s="104">
         <f t="shared" si="2"/>
         <v>17011.003697674641</v>
       </c>
-      <c r="T39" s="113">
+      <c r="T39" s="104">
         <f t="shared" si="2"/>
         <v>54279.500414557726</v>
       </c>
-      <c r="U39" s="113">
+      <c r="U39" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V39" s="113">
+      <c r="V39" s="104">
         <f t="shared" si="2"/>
         <v>31223.742527302995</v>
       </c>
-      <c r="W39" s="113">
+      <c r="W39" s="104">
         <f t="shared" si="2"/>
         <v>15253.81859274316</v>
       </c>
-      <c r="X39" s="113">
+      <c r="X39" s="104">
         <f t="shared" si="2"/>
         <v>6498.8466057145488</v>
       </c>
-      <c r="Y39" s="113">
+      <c r="Y39" s="104">
         <f t="shared" si="2"/>
         <v>3376.4076924944616</v>
       </c>
-      <c r="Z39" s="113">
+      <c r="Z39" s="104">
         <f t="shared" si="2"/>
         <v>21835.726537983224</v>
       </c>
-      <c r="AA39" s="113">
+      <c r="AA39" s="104">
         <f t="shared" si="2"/>
         <v>78188.54195623839</v>
       </c>
-      <c r="AB39" s="113">
+      <c r="AB39" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC39" s="113">
+      <c r="AC39" s="104">
         <f t="shared" si="2"/>
         <v>11422.414988603085</v>
       </c>
-      <c r="AD39" s="113">
+      <c r="AD39" s="104">
         <f t="shared" si="2"/>
         <v>5353.0167059706264</v>
       </c>
-      <c r="AE39" s="113">
+      <c r="AE39" s="104">
         <f t="shared" si="2"/>
         <v>6384.3055427053741</v>
       </c>
-      <c r="AF39" s="113">
+      <c r="AF39" s="104">
         <f t="shared" si="2"/>
         <v>427.15341643668359</v>
       </c>
-      <c r="AG39" s="113">
+      <c r="AG39" s="104">
         <f t="shared" si="2"/>
         <v>986.27315580805066</v>
       </c>
-      <c r="AH39" s="113">
+      <c r="AH39" s="104">
         <f t="shared" si="2"/>
         <v>24573.16380952382</v>
       </c>
-      <c r="AI39" s="113">
+      <c r="AI39" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ39" s="113">
+      <c r="AJ39" s="104">
         <f t="shared" si="2"/>
         <v>11233.144034853503</v>
       </c>
-      <c r="AK39" s="113">
+      <c r="AK39" s="104">
         <f t="shared" si="2"/>
         <v>11306.792497148826</v>
       </c>
-      <c r="AL39" s="113">
+      <c r="AL39" s="104">
         <f t="shared" si="2"/>
         <v>9080.882510647747</v>
       </c>
-      <c r="AM39" s="113">
+      <c r="AM39" s="104">
         <f t="shared" si="2"/>
         <v>16178.541490809619</v>
       </c>
-      <c r="AN39" s="113">
+      <c r="AN39" s="104">
         <f t="shared" si="2"/>
         <v>47799.360533459701</v>
       </c>
-      <c r="AO39" s="113">
+      <c r="AO39" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AP39" s="114">
+      <c r="AP39" s="105">
         <f t="shared" si="2"/>
         <v>303222.98415629956</v>
       </c>
     </row>
     <row r="40" spans="2:42">
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
     </row>
     <row r="41" spans="2:42">
       <c r="AP41" s="23"/>
     </row>
     <row r="43" spans="2:42" ht="20">
-      <c r="B43" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="81"/>
+      <c r="B43" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="72"/>
     </row>
     <row r="44" spans="2:42" ht="15" customHeight="1">
-      <c r="B44" s="71"/>
-      <c r="C44" s="81"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="72"/>
     </row>
     <row r="45" spans="2:42" ht="15" customHeight="1">
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="173"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="69"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
     </row>
     <row r="46" spans="2:42" ht="15" customHeight="1">
-      <c r="B46" s="149" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46" s="174" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" s="150" t="s">
-        <v>209</v>
-      </c>
-      <c r="E46" s="150" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" s="151" t="s">
-        <v>201</v>
+      <c r="B46" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="158" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="141" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="142" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="2:42" ht="15" customHeight="1">
-      <c r="B47" s="175" t="s">
+      <c r="B47" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="176">
+      <c r="C47" s="160">
         <f>D18</f>
         <v>25627.893430994434</v>
       </c>
-      <c r="D47" s="161">
+      <c r="D47" s="151">
         <v>0.4</v>
       </c>
-      <c r="E47" s="66">
+      <c r="E47" s="65">
         <f>C47*D47</f>
         <v>10251.157372397774</v>
       </c>
-      <c r="F47" s="153">
+      <c r="F47" s="144">
         <f>E47/$E$52</f>
         <v>0.32285844228877292</v>
       </c>
     </row>
     <row r="48" spans="2:42" ht="15" customHeight="1">
-      <c r="B48" s="175" t="s">
+      <c r="B48" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="176">
+      <c r="C48" s="160">
         <f>AK39</f>
         <v>11306.792497148826</v>
       </c>
-      <c r="D48" s="161">
+      <c r="D48" s="151">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E48" s="66">
+      <c r="E48" s="65">
         <f t="shared" ref="E48:E51" si="3">C48*D48</f>
         <v>6218.735873431855</v>
       </c>
-      <c r="F48" s="153">
+      <c r="F48" s="144">
         <f t="shared" ref="F48:F51" si="4">E48/$E$52</f>
         <v>0.19585801916451284</v>
       </c>
       <c r="G48" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="15" customHeight="1">
-      <c r="B49" s="175" t="s">
+      <c r="B49" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="176">
+      <c r="C49" s="160">
         <f>G18/2</f>
         <v>10538.863003115279</v>
       </c>
-      <c r="D49" s="161">
+      <c r="D49" s="151">
         <v>0.6</v>
       </c>
-      <c r="E49" s="66">
+      <c r="E49" s="65">
         <f t="shared" si="3"/>
         <v>6323.3178018691669</v>
       </c>
-      <c r="F49" s="153">
+      <c r="F49" s="144">
         <f t="shared" si="4"/>
         <v>0.1991518090538128</v>
       </c>
       <c r="G49" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="15" customHeight="1">
-      <c r="B50" s="175" t="s">
+      <c r="B50" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="176">
+      <c r="C50" s="160">
         <f>G18/2</f>
         <v>10538.863003115279</v>
       </c>
-      <c r="D50" s="161">
+      <c r="D50" s="151">
         <v>0.85</v>
       </c>
-      <c r="E50" s="66">
+      <c r="E50" s="65">
         <f t="shared" si="3"/>
         <v>8958.0335526479867</v>
       </c>
-      <c r="F50" s="153">
+      <c r="F50" s="144">
         <f t="shared" si="4"/>
         <v>0.2821317294929015</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="15" customHeight="1">
-      <c r="B51" s="175" t="s">
+      <c r="B51" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="176">
+      <c r="C51" s="160">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D51" s="161">
+      <c r="D51" s="151">
         <v>0.3</v>
       </c>
-      <c r="E51" s="66">
+      <c r="E51" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F51" s="153">
+      <c r="F51" s="144">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15" customHeight="1">
-      <c r="B52" s="177" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" s="178"/>
-      <c r="D52" s="160"/>
-      <c r="E52" s="160">
+      <c r="B52" s="161" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="162"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="150">
         <f>SUM(E47:E51)</f>
         <v>31751.244600346781</v>
       </c>
-      <c r="F52" s="157"/>
+      <c r="F52" s="148"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="69"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="68"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="149" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="150" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="150" t="s">
-        <v>200</v>
-      </c>
-      <c r="E55" s="150" t="s">
-        <v>199</v>
-      </c>
-      <c r="F55" s="151" t="s">
-        <v>201</v>
+      <c r="B55" s="140" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="141" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="142" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="152">
+      <c r="C56" s="143">
         <f>C39+D39</f>
         <v>30805.849640452372</v>
       </c>
-      <c r="D56" s="161">
+      <c r="D56" s="151">
         <v>0.05</v>
       </c>
-      <c r="E56" s="152">
+      <c r="E56" s="143">
         <f>C56*D56</f>
         <v>1540.2924820226187</v>
       </c>
-      <c r="F56" s="153">
+      <c r="F56" s="144">
         <f>E56/$E$59</f>
         <v>0.24486162576041723</v>
       </c>
+      <c r="G56" s="71" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="152">
+      <c r="B57" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="143">
         <f>E39+F39</f>
         <v>18276.919517899409</v>
       </c>
-      <c r="D57" s="161">
+      <c r="D57" s="151">
         <v>0.25</v>
       </c>
-      <c r="E57" s="152">
+      <c r="E57" s="143">
         <f t="shared" ref="E57:E58" si="5">C57*D57</f>
         <v>4569.2298794748522</v>
       </c>
-      <c r="F57" s="153">
+      <c r="F57" s="144">
         <f t="shared" ref="F57:F58" si="6">E57/$E$59</f>
         <v>0.72637441902729349</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="80" t="s">
+      <c r="B58" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="152">
+      <c r="C58" s="143">
         <f>G39</f>
         <v>361.87707101213402</v>
       </c>
-      <c r="D58" s="162">
+      <c r="D58" s="152">
         <v>0.5</v>
       </c>
-      <c r="E58" s="152">
+      <c r="E58" s="143">
         <f t="shared" si="5"/>
         <v>180.93853550606701</v>
       </c>
-      <c r="F58" s="153">
+      <c r="F58" s="144">
         <f t="shared" si="6"/>
         <v>2.8763955212289312E-2</v>
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="155" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" s="156">
+      <c r="B59" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="147">
         <f>SUM(C56:C58)</f>
         <v>49444.646229363912</v>
       </c>
-      <c r="D59" s="160"/>
-      <c r="E59" s="156">
+      <c r="D59" s="150"/>
+      <c r="E59" s="147">
         <f>SUM(E56:E58)</f>
         <v>6290.4608970035379</v>
       </c>
-      <c r="F59" s="157"/>
+      <c r="F59" s="148"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="172" t="s">
-        <v>204</v>
+      <c r="B61" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="156" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="149" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="150" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="151" t="s">
-        <v>147</v>
+      <c r="B62" s="140" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="142" t="s">
+        <v>141</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="158" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="152">
+      <c r="B63" s="149" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="143">
         <f>R39</f>
         <v>12034.152909398335</v>
       </c>
-      <c r="D63" s="153">
-        <f>C63/$C$71</f>
-        <v>4.9631196469125893E-2</v>
-      </c>
-      <c r="E63" s="171" t="s">
-        <v>206</v>
+      <c r="D63" s="190">
+        <f>ROUND(C63/$C$71,4)</f>
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="E63" s="155" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="158" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="152">
+      <c r="B64" s="149" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="143">
         <f>J39+K39+L39+M39</f>
         <v>48937.771213156011</v>
       </c>
-      <c r="D64" s="153">
-        <f t="shared" ref="D64:D70" si="7">C64/$C$71</f>
-        <v>0.20182892440600647</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="158" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="152">
+      <c r="D64" s="190">
+        <f t="shared" ref="D64:D67" si="7">ROUND(C64/$C$71,4)</f>
+        <v>0.20180000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="143">
         <f>P39+Q39/2</f>
         <v>20869.075047945193</v>
       </c>
-      <c r="D65" s="153">
+      <c r="D65" s="190">
         <f t="shared" si="7"/>
-        <v>8.6068140535641977E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="158" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="152">
+        <v>8.6099999999999996E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="149" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="143">
         <f>S39+Q39/2</f>
         <v>21376.272457214203</v>
       </c>
-      <c r="D66" s="153">
+      <c r="D66" s="190">
         <f t="shared" si="7"/>
-        <v>8.8159921690292478E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="158" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="152">
+        <v>8.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="149" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="143">
         <f>V39</f>
         <v>31223.742527302995</v>
       </c>
-      <c r="D67" s="153">
+      <c r="D67" s="190">
         <f t="shared" si="7"/>
-        <v>0.12877281114350195</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="158" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="152">
+        <v>0.1288</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="143">
         <f>W39+X39+Y39+AC39+AD39+AE39+AF39+AG39</f>
         <v>49702.236700475994</v>
       </c>
-      <c r="D68" s="153">
-        <f t="shared" si="7"/>
-        <v>0.20498172935045861</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="158" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="66">
-        <v>0</v>
-      </c>
-      <c r="D69" s="153">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="158" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" s="152">
+      <c r="D68" s="190">
+        <f>ROUND(C68/$C$71,4)-0.0001</f>
+        <v>0.2049</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="149" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="65">
+        <v>0</v>
+      </c>
+      <c r="D69" s="190">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E69" s="189" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="143">
         <f>Z39+AJ39+AL39+AM39</f>
         <v>58328.294574294094</v>
       </c>
-      <c r="D70" s="153">
-        <f t="shared" si="7"/>
-        <v>0.24055727640497257</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="154"/>
-      <c r="C71" s="156">
+      <c r="D70" s="190">
+        <f>ROUND(C70/$C$71-D69,4)</f>
+        <v>0.18160000000000001</v>
+      </c>
+      <c r="E70" s="189" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="145"/>
+      <c r="C71" s="147">
         <f>SUM(C63:C70)</f>
         <v>242471.54542978684</v>
       </c>
-      <c r="D71" s="157"/>
+      <c r="D71" s="191">
+        <f>SUM(D63:D70)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4812,1033 +5626,389 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20">
-      <c r="A1" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="115" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="116" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="66"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="73" t="s">
+    <row r="2" spans="2:13">
+      <c r="B2" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="145" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="183"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="184" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="185" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="184" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="184" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="144">
+        <v>162</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8">
+        <f>C15</f>
+        <v>294</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M15" si="0">K8/$K$16</f>
+        <v>5.9962064816136723E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="144">
+        <v>427</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9">
+        <f>C8+C9+C10+C11</f>
+        <v>1278</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0.26065142460892088</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="144">
+        <v>327</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10">
+        <f>C12+C13/2</f>
+        <v>287.5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>5.8636372906936421E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="144">
+        <v>362</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11">
+        <f>C14+C13/2</f>
+        <v>515.5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.1051375660296547</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="144">
+        <v>166</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12">
+        <f>C23+C24+C25</f>
+        <v>975</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0.19885378638004525</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="144">
+        <v>243</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13">
+        <f>C26+C22</f>
+        <v>705</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0.14378658399787889</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="144">
+        <v>394</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14">
+        <f>C35</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>3.6915420856193019E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="144">
+        <v>294</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15">
+        <f>C16+C17+C19+C20</f>
+        <v>830</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0.16928065917480775</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="144">
+        <v>290</v>
+      </c>
+      <c r="E16" s="186" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <f>SUM(K8:K15)</f>
+        <v>4903.1000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="144">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="144">
+        <v>226</v>
+      </c>
+      <c r="E18" s="187" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="144">
+        <v>56</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="K19">
+        <f>C18</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="144">
+        <v>167</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <f>C21</f>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="144">
+        <v>537</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f>C27+C28</f>
+        <v>6754</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="144">
+        <v>465</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="K22">
+        <f>C29+C30</f>
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="144">
         <v>118</v>
       </c>
-      <c r="B6" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="66"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="F7" s="66"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="75">
-        <v>2011</v>
-      </c>
-      <c r="D8" s="75">
-        <v>2012</v>
-      </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="75">
-        <v>2011</v>
-      </c>
-      <c r="H8" s="75">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="77">
-        <v>0.69589999999999996</v>
-      </c>
-      <c r="D9" s="77">
-        <v>0.65369999999999995</v>
-      </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="79">
-        <f t="shared" ref="G9:G40" si="0">C9*mtoe_to_tj</f>
-        <v>29135.941199999997</v>
-      </c>
-      <c r="H9" s="79">
-        <f t="shared" ref="H9:H40" si="1">D9*mtoe_to_tj</f>
-        <v>27369.111599999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="77">
-        <v>2.5247999999999999</v>
-      </c>
-      <c r="D10" s="77">
-        <v>2.5590000000000002</v>
-      </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="79">
-        <f t="shared" si="0"/>
-        <v>105708.32639999999</v>
-      </c>
-      <c r="H10" s="79">
-        <f t="shared" si="1"/>
-        <v>107140.21200000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="76" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="77">
-        <v>22.705100000000002</v>
-      </c>
-      <c r="D11" s="77">
-        <v>26.240100000000002</v>
-      </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="79">
-        <f t="shared" si="0"/>
-        <v>950617.12680000009</v>
-      </c>
-      <c r="H11" s="79">
-        <f t="shared" si="1"/>
-        <v>1098620.5068000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="77">
-        <v>5.1900000000000002E-2</v>
-      </c>
-      <c r="D12" s="77">
-        <v>5.1900000000000002E-2</v>
-      </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="79">
-        <f t="shared" si="0"/>
-        <v>2172.9492</v>
-      </c>
-      <c r="H12" s="79">
-        <f t="shared" si="1"/>
-        <v>2172.9492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="76" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="77">
-        <v>0.51990000000000003</v>
-      </c>
-      <c r="D13" s="77">
-        <v>0.59179999999999999</v>
-      </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="79">
-        <f t="shared" si="0"/>
-        <v>21767.173200000001</v>
-      </c>
-      <c r="H13" s="79">
-        <f t="shared" si="1"/>
-        <v>24777.482400000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="77">
-        <v>9.5961999999999996</v>
-      </c>
-      <c r="D14" s="77">
-        <v>9.8621999999999996</v>
-      </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="79">
-        <f t="shared" si="0"/>
-        <v>401773.70159999997</v>
-      </c>
-      <c r="H14" s="79">
-        <f t="shared" si="1"/>
-        <v>412910.58960000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="77">
-        <v>36.093800000000002</v>
-      </c>
-      <c r="D15" s="77">
-        <v>39.9587</v>
-      </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="79">
-        <f t="shared" si="0"/>
-        <v>1511175.2184000001</v>
-      </c>
-      <c r="H15" s="79">
-        <f t="shared" si="1"/>
-        <v>1672990.8515999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="77">
-        <v>38.538699999999999</v>
-      </c>
-      <c r="D16" s="77">
-        <v>39.809600000000003</v>
-      </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="79">
-        <f t="shared" si="0"/>
-        <v>1613538.2915999999</v>
-      </c>
-      <c r="H16" s="79">
-        <f t="shared" si="1"/>
-        <v>1666748.3328000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="77">
-        <v>0.70369999999999999</v>
-      </c>
-      <c r="D17" s="77">
-        <v>0.66649999999999998</v>
-      </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="79">
-        <f t="shared" si="0"/>
-        <v>29462.511599999998</v>
-      </c>
-      <c r="H17" s="79">
-        <f t="shared" si="1"/>
-        <v>27905.022000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="77">
-        <v>2.1869999999999998</v>
-      </c>
-      <c r="D18" s="77">
-        <v>2.2808000000000002</v>
-      </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="79">
-        <f t="shared" si="0"/>
-        <v>91565.315999999992</v>
-      </c>
-      <c r="H18" s="79">
-        <f t="shared" si="1"/>
-        <v>95492.534400000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="77">
-        <v>18.731300000000001</v>
-      </c>
-      <c r="D19" s="77">
-        <v>22.5398</v>
-      </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="79">
-        <f t="shared" si="0"/>
-        <v>784242.06839999999</v>
-      </c>
-      <c r="H19" s="79">
-        <f t="shared" si="1"/>
-        <v>943696.34640000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="77">
-        <v>0</v>
-      </c>
-      <c r="D20" s="77">
-        <v>0</v>
-      </c>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="77">
-        <v>0.51990000000000003</v>
-      </c>
-      <c r="D21" s="77">
-        <v>0.59179999999999999</v>
-      </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="79">
-        <f t="shared" si="0"/>
-        <v>21767.173200000001</v>
-      </c>
-      <c r="H21" s="79">
-        <f t="shared" si="1"/>
-        <v>24777.482400000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="77">
-        <v>1.7776000000000001</v>
-      </c>
-      <c r="D22" s="77">
-        <v>2.0981000000000001</v>
-      </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="79">
-        <f t="shared" si="0"/>
-        <v>74424.556800000006</v>
-      </c>
-      <c r="H22" s="79">
-        <f t="shared" si="1"/>
-        <v>87843.250800000009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="77">
-        <v>23.919499999999999</v>
-      </c>
-      <c r="D23" s="77">
-        <v>28.177</v>
-      </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="79">
-        <f t="shared" si="0"/>
-        <v>1001461.6259999999</v>
-      </c>
-      <c r="H23" s="79">
-        <f t="shared" si="1"/>
-        <v>1179714.6359999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="77">
-        <v>26.3003</v>
-      </c>
-      <c r="D24" s="77">
-        <v>28.026499999999999</v>
-      </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="79">
-        <f t="shared" si="0"/>
-        <v>1101140.9604</v>
-      </c>
-      <c r="H24" s="79">
-        <f t="shared" si="1"/>
-        <v>1173413.5019999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="77">
-        <v>5.21E-2</v>
-      </c>
-      <c r="D25" s="77">
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="79">
-        <f t="shared" si="0"/>
-        <v>2181.3227999999999</v>
-      </c>
-      <c r="H25" s="79">
-        <f t="shared" si="1"/>
-        <v>1766.8296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="77">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="D26" s="77">
-        <v>0.42449999999999999</v>
-      </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="79">
-        <f t="shared" si="0"/>
-        <v>20180.376</v>
-      </c>
-      <c r="H26" s="79">
-        <f t="shared" si="1"/>
-        <v>17772.966</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="77">
-        <v>5.8979999999999997</v>
-      </c>
-      <c r="D27" s="77">
-        <v>6.0037000000000003</v>
-      </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="79">
-        <f t="shared" si="0"/>
-        <v>246937.46399999998</v>
-      </c>
-      <c r="H27" s="79">
-        <f t="shared" si="1"/>
-        <v>251362.91160000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="77">
-        <v>0</v>
-      </c>
-      <c r="D28" s="77">
-        <v>0</v>
-      </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="77">
-        <v>0</v>
-      </c>
-      <c r="D29" s="77">
-        <v>0</v>
-      </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="76" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="77">
-        <v>0.70579999999999998</v>
-      </c>
-      <c r="D30" s="77">
-        <v>0.64990000000000003</v>
-      </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="79">
-        <f t="shared" si="0"/>
-        <v>29550.434399999998</v>
-      </c>
-      <c r="H30" s="79">
-        <f t="shared" si="1"/>
-        <v>27210.013200000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="77">
-        <v>7.1379999999999999</v>
-      </c>
-      <c r="D31" s="77">
-        <v>7.1204000000000001</v>
-      </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="79">
-        <f t="shared" si="0"/>
-        <v>298853.78399999999</v>
-      </c>
-      <c r="H31" s="79">
-        <f t="shared" si="1"/>
-        <v>298116.90720000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="77">
-        <v>0</v>
-      </c>
-      <c r="D32" s="77">
-        <v>0</v>
-      </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="77">
-        <v>0</v>
-      </c>
-      <c r="D33" s="77">
-        <v>0</v>
-      </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="77">
-        <v>0.59850000000000003</v>
-      </c>
-      <c r="D34" s="77">
-        <v>0.61209999999999998</v>
-      </c>
-      <c r="E34" s="77"/>
-      <c r="F34" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="79">
-        <f t="shared" si="0"/>
-        <v>25057.998</v>
-      </c>
-      <c r="H34" s="79">
-        <f t="shared" si="1"/>
-        <v>25627.4028</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="77">
-        <v>0.51490000000000002</v>
-      </c>
-      <c r="D35" s="77">
-        <v>0.50339999999999996</v>
-      </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="79">
-        <f t="shared" si="0"/>
-        <v>21557.833200000001</v>
-      </c>
-      <c r="H35" s="79">
-        <f t="shared" si="1"/>
-        <v>21076.351199999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="77">
-        <v>0</v>
-      </c>
-      <c r="D36" s="77">
-        <v>0</v>
-      </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="76" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="77">
-        <v>1.1133999999999999</v>
-      </c>
-      <c r="D37" s="77">
-        <v>1.1154999999999999</v>
-      </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="79">
-        <f t="shared" si="0"/>
-        <v>46615.831200000001</v>
-      </c>
-      <c r="H37" s="79">
-        <f t="shared" si="1"/>
-        <v>46703.754000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="77">
-        <v>0</v>
-      </c>
-      <c r="D38" s="77">
-        <v>0</v>
-      </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="77">
-        <v>7.1867000000000001</v>
-      </c>
-      <c r="D39" s="77">
-        <v>7.2423999999999999</v>
-      </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="79">
-        <f t="shared" si="0"/>
-        <v>300892.75559999997</v>
-      </c>
-      <c r="H39" s="79">
-        <f t="shared" si="1"/>
-        <v>303224.80320000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="B40" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="77">
-        <v>1.1787000000000001</v>
-      </c>
-      <c r="D40" s="77">
-        <v>1.181</v>
-      </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="79">
-        <f t="shared" si="0"/>
-        <v>49349.811600000001</v>
-      </c>
-      <c r="H40" s="79">
-        <f t="shared" si="1"/>
-        <v>49446.108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="76" t="s">
-        <v>192</v>
-      </c>
-      <c r="B41" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" s="77">
-        <v>83.566400000000002</v>
-      </c>
-      <c r="D41" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="77"/>
-      <c r="F41" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="159">
-        <f>C41*twh_to_tj</f>
-        <v>300839.03999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="77">
-        <v>13.7057</v>
-      </c>
-      <c r="D42" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="159">
-        <f>C42*twh_to_tj</f>
-        <v>49340.520000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="77">
-        <v>0</v>
-      </c>
-      <c r="D43" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="159">
-        <f>C43*twh_to_tj</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="B44" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="77">
-        <v>20.2926</v>
-      </c>
-      <c r="D44" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="159">
-        <f>C44*twh_to_tj</f>
-        <v>73053.36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="76" t="s">
-        <v>197</v>
-      </c>
-      <c r="B45" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="C45" s="77">
-        <v>49.568199999999997</v>
-      </c>
-      <c r="D45" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" s="77"/>
-      <c r="F45" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="159">
-        <f>C45*twh_to_tj</f>
-        <v>178445.52</v>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="144">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="144">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="144">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="144">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="144">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="144">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="145" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" s="183">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="188" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="185" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="145" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="183">
+        <v>18.100000000000001</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Number Range" error="You may only enter positive numbers here. " sqref="B5:B6">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5847,4 +6017,1284 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Z29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="10" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="3.1640625" style="164" customWidth="1"/>
+    <col min="3" max="7" width="7.5" style="164"/>
+    <col min="8" max="8" width="24.5" style="164" customWidth="1"/>
+    <col min="9" max="13" width="7.5" style="164"/>
+    <col min="14" max="14" width="24.6640625" style="164" customWidth="1"/>
+    <col min="15" max="16384" width="7.5" style="164"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" ht="15" thickBot="1">
+      <c r="B2" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+    </row>
+    <row r="4" spans="2:26">
+      <c r="B4" s="165"/>
+    </row>
+    <row r="5" spans="2:26" ht="13">
+      <c r="G5" s="166" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+    </row>
+    <row r="7" spans="2:26">
+      <c r="G7" s="167"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" s="168" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="168" t="s">
+        <v>172</v>
+      </c>
+      <c r="L7" s="168" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" ht="11">
+      <c r="C8" s="169" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+    </row>
+    <row r="9" spans="2:26" ht="11">
+      <c r="H9" s="170"/>
+      <c r="I9" s="170" t="s">
+        <v>175</v>
+      </c>
+      <c r="J9" s="170" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" s="170" t="s">
+        <v>175</v>
+      </c>
+      <c r="L9" s="170" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="11">
+      <c r="C10" s="164" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168" t="str">
+        <f>I7</f>
+        <v>Germany</v>
+      </c>
+      <c r="P10" s="168" t="str">
+        <f t="shared" ref="P10:R10" si="0">J7</f>
+        <v>France</v>
+      </c>
+      <c r="Q10" s="168" t="str">
+        <f t="shared" si="0"/>
+        <v>UK</v>
+      </c>
+      <c r="R10" s="168" t="str">
+        <f t="shared" si="0"/>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" ht="15">
+      <c r="C11" s="164" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="170" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="171">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J11" s="171">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="K11" s="171">
+        <v>8.3050780146264547E-2</v>
+      </c>
+      <c r="L11" s="171">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N11" s="172" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="173">
+        <f>SUM(I11:I12)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P11" s="174">
+        <f t="shared" ref="P11:R11" si="1">SUM(J11:J12)</f>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="Q11" s="174">
+        <f t="shared" si="1"/>
+        <v>8.3050780146264547E-2</v>
+      </c>
+      <c r="R11" s="174">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" ht="11">
+      <c r="C12" s="164" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="170" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="171">
+        <v>0</v>
+      </c>
+      <c r="J12" s="171">
+        <v>0</v>
+      </c>
+      <c r="K12" s="171">
+        <v>0</v>
+      </c>
+      <c r="L12" s="171">
+        <v>0</v>
+      </c>
+      <c r="N12" s="172" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="175"/>
+    </row>
+    <row r="13" spans="2:26" ht="15">
+      <c r="C13" s="164" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="170" t="s">
+        <v>182</v>
+      </c>
+      <c r="I13" s="171">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="J13" s="171">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="K13" s="171">
+        <v>0.70893358888057845</v>
+      </c>
+      <c r="L13" s="171">
+        <v>0.245</v>
+      </c>
+      <c r="N13" s="172" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="176">
+        <f>SUM(I23,I28)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="177">
+        <f t="shared" ref="P13:R13" si="2">SUM(J23,J28)</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="Q13" s="177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="15">
+      <c r="C14" s="164" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="170" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="171">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="171">
+        <v>0</v>
+      </c>
+      <c r="K14" s="171">
+        <v>2.1975375010388101E-3</v>
+      </c>
+      <c r="L14" s="171">
+        <v>0</v>
+      </c>
+      <c r="N14" s="172" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="178">
+        <f>I29</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="179">
+        <f t="shared" ref="P14:R14" si="3">J29</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="179">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="179">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="15">
+      <c r="C15" s="164" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" s="171">
+        <v>0.183</v>
+      </c>
+      <c r="J15" s="171">
+        <v>0.192</v>
+      </c>
+      <c r="K15" s="171">
+        <v>4.175321251973739E-2</v>
+      </c>
+      <c r="L15" s="171">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="N15" s="172" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="176">
+        <f>I16</f>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="P15" s="177">
+        <f t="shared" ref="P15:R15" si="4">J16</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="177">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="177">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="15">
+      <c r="C16" s="164" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="170" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="171">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J16" s="171">
+        <v>0</v>
+      </c>
+      <c r="K16" s="171">
+        <v>0</v>
+      </c>
+      <c r="L16" s="171">
+        <v>0</v>
+      </c>
+      <c r="N16" s="172" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="178">
+        <f>SUM(I21,I22,I26,I27)</f>
+        <v>2.8767981574953916E-3</v>
+      </c>
+      <c r="P16" s="179">
+        <f t="shared" ref="P16:R16" si="5">SUM(J21,J22,J26,J27)</f>
+        <v>6.3999999999999994E-3</v>
+      </c>
+      <c r="Q16" s="179">
+        <f t="shared" si="5"/>
+        <v>7.5892857142857131E-4</v>
+      </c>
+      <c r="R16" s="179">
+        <f t="shared" si="5"/>
+        <v>6.2000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" ht="15">
+      <c r="C17" s="164" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" s="171">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J17" s="171">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K17" s="171">
+        <v>8.2885431400282882E-3</v>
+      </c>
+      <c r="L17" s="171">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="N17" s="172" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="176">
+        <f>I17</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P17" s="177">
+        <f t="shared" ref="P17:R18" si="6">J17</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Q17" s="177">
+        <f t="shared" si="6"/>
+        <v>8.2885431400282882E-3</v>
+      </c>
+      <c r="R17" s="177">
+        <f t="shared" si="6"/>
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" ht="15">
+      <c r="C18" s="164" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="170" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="171">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J18" s="171">
+        <v>0.12</v>
+      </c>
+      <c r="K18" s="171">
+        <v>0.15452891717743203</v>
+      </c>
+      <c r="L18" s="171">
+        <v>0.379</v>
+      </c>
+      <c r="N18" s="172" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="178">
+        <f>I18</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P18" s="179">
+        <f t="shared" si="6"/>
+        <v>0.12</v>
+      </c>
+      <c r="Q18" s="179">
+        <f t="shared" si="6"/>
+        <v>0.15452891717743203</v>
+      </c>
+      <c r="R18" s="179">
+        <f t="shared" si="6"/>
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" ht="15">
+      <c r="H19" s="170" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" s="171">
+        <v>3.7647482877513874E-3</v>
+      </c>
+      <c r="J19" s="171">
+        <v>1.8E-3</v>
+      </c>
+      <c r="K19" s="171">
+        <v>2.4424603174603174E-4</v>
+      </c>
+      <c r="L19" s="171">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="N19" s="172" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="176">
+        <f>I13</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="P19" s="177">
+        <f t="shared" ref="P19:R19" si="7">J13</f>
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="Q19" s="177">
+        <f t="shared" si="7"/>
+        <v>0.70893358888057845</v>
+      </c>
+      <c r="R19" s="177">
+        <f t="shared" si="7"/>
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" ht="15">
+      <c r="H20" s="170" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="171">
+        <v>6.3423942769833528E-4</v>
+      </c>
+      <c r="J20" s="171">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="K20" s="171">
+        <v>2.4424603174603174E-4</v>
+      </c>
+      <c r="L20" s="171">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="N20" s="172" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="178">
+        <f>SUM(I14:I15)</f>
+        <v>0.28300000000000003</v>
+      </c>
+      <c r="P20" s="179">
+        <f t="shared" ref="P20:R20" si="8">SUM(J14:J15)</f>
+        <v>0.192</v>
+      </c>
+      <c r="Q20" s="179">
+        <f t="shared" si="8"/>
+        <v>4.3950750020776197E-2</v>
+      </c>
+      <c r="R20" s="179">
+        <f t="shared" si="8"/>
+        <v>9.0800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" ht="11">
+      <c r="H21" s="170" t="s">
+        <v>195</v>
+      </c>
+      <c r="I21" s="171">
+        <v>2.6264719233583143E-3</v>
+      </c>
+      <c r="J21" s="171">
+        <v>1.5E-3</v>
+      </c>
+      <c r="K21" s="171">
+        <v>5.3194444444444437E-4</v>
+      </c>
+      <c r="L21" s="171">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N21" s="172" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" s="175"/>
+    </row>
+    <row r="22" spans="3:18" ht="15">
+      <c r="H22" s="170" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="171">
+        <v>2.5032623413707734E-4</v>
+      </c>
+      <c r="J22" s="171">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="K22" s="171">
+        <v>2.2698412698412697E-4</v>
+      </c>
+      <c r="L22" s="171">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="N22" s="172" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="173">
+        <f>SUM(I19,I20,I24,I25)</f>
+        <v>4.3989877154497229E-3</v>
+      </c>
+      <c r="P22" s="174">
+        <f t="shared" ref="P22:R22" si="9">SUM(J19,J20,J24,J25)</f>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="Q22" s="174">
+        <f t="shared" si="9"/>
+        <v>4.8849206349206348E-4</v>
+      </c>
+      <c r="R22" s="174">
+        <f t="shared" si="9"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" ht="11">
+      <c r="H23" s="170" t="s">
+        <v>197</v>
+      </c>
+      <c r="I23" s="171">
+        <v>0</v>
+      </c>
+      <c r="J23" s="171">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="K23" s="171">
+        <v>0</v>
+      </c>
+      <c r="L23" s="171">
+        <v>0</v>
+      </c>
+      <c r="N23" s="172" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" s="180">
+        <f>SUM(O11:O22)</f>
+        <v>1.0002757858729452</v>
+      </c>
+      <c r="P23" s="180">
+        <f t="shared" ref="P23:R23" si="10">SUM(P11:P22)</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="180">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="R23" s="180">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" ht="11">
+      <c r="H24" s="170" t="s">
+        <v>199</v>
+      </c>
+      <c r="I24" s="171">
+        <v>0</v>
+      </c>
+      <c r="J24" s="171">
+        <v>0</v>
+      </c>
+      <c r="K24" s="171">
+        <v>0</v>
+      </c>
+      <c r="L24" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" ht="11">
+      <c r="H25" s="170" t="s">
+        <v>200</v>
+      </c>
+      <c r="I25" s="171">
+        <v>0</v>
+      </c>
+      <c r="J25" s="171">
+        <v>0</v>
+      </c>
+      <c r="K25" s="171">
+        <v>0</v>
+      </c>
+      <c r="L25" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" ht="11">
+      <c r="H26" s="170" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" s="171">
+        <v>0</v>
+      </c>
+      <c r="J26" s="171">
+        <v>0</v>
+      </c>
+      <c r="K26" s="171">
+        <v>0</v>
+      </c>
+      <c r="L26" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" ht="11">
+      <c r="H27" s="170" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" s="171">
+        <v>0</v>
+      </c>
+      <c r="J27" s="171">
+        <v>0</v>
+      </c>
+      <c r="K27" s="171">
+        <v>0</v>
+      </c>
+      <c r="L27" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" ht="11">
+      <c r="H28" s="170" t="s">
+        <v>203</v>
+      </c>
+      <c r="I28" s="171">
+        <v>0</v>
+      </c>
+      <c r="J28" s="171">
+        <v>0</v>
+      </c>
+      <c r="K28" s="171">
+        <v>0</v>
+      </c>
+      <c r="L28" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" ht="11">
+      <c r="H29" s="170" t="s">
+        <v>204</v>
+      </c>
+      <c r="I29" s="171">
+        <v>0</v>
+      </c>
+      <c r="J29" s="171">
+        <v>0</v>
+      </c>
+      <c r="K29" s="171">
+        <v>0</v>
+      </c>
+      <c r="L29" s="171">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="10" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="3.1640625" style="164" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="164" customWidth="1"/>
+    <col min="4" max="8" width="7.5" style="164"/>
+    <col min="9" max="9" width="47" style="164" customWidth="1"/>
+    <col min="10" max="16384" width="7.5" style="164"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="15" thickBot="1">
+      <c r="B2" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="C5" s="168"/>
+      <c r="D5" s="168" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="168" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="168" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="168" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168" t="str">
+        <f>D5</f>
+        <v>Germany</v>
+      </c>
+      <c r="K5" s="168" t="str">
+        <f t="shared" ref="K5:M5" si="0">E5</f>
+        <v>France</v>
+      </c>
+      <c r="L5" s="168" t="str">
+        <f t="shared" si="0"/>
+        <v>UK</v>
+      </c>
+      <c r="M5" s="168" t="str">
+        <f t="shared" si="0"/>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="15">
+      <c r="C6" s="171" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="171">
+        <v>0.109</v>
+      </c>
+      <c r="E6" s="171">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="171">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G6" s="171">
+        <v>0</v>
+      </c>
+      <c r="I6" s="172" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="174">
+        <f>SUM(D6:D7)</f>
+        <v>0.12</v>
+      </c>
+      <c r="K6" s="174">
+        <f t="shared" ref="K6:M6" si="1">SUM(E6:E7)</f>
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="174">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M6" s="174">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="11">
+      <c r="C7" s="171" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="171">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E7" s="171">
+        <v>0</v>
+      </c>
+      <c r="F7" s="171">
+        <v>0</v>
+      </c>
+      <c r="G7" s="171">
+        <v>0</v>
+      </c>
+      <c r="I7" s="172" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="15">
+      <c r="C8" s="171" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="171">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E8" s="171">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F8" s="171">
+        <v>0.69</v>
+      </c>
+      <c r="G8" s="171">
+        <v>0.245</v>
+      </c>
+      <c r="I8" s="172" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="177">
+        <f>SUM(D20,D21)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="177">
+        <f t="shared" ref="K8:M8" si="2">SUM(E20,E21)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="L8" s="177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="15">
+      <c r="C9" s="171" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="171">
+        <v>0</v>
+      </c>
+      <c r="E9" s="171">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="171">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="171">
+        <v>0</v>
+      </c>
+      <c r="I9" s="172" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="179">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="179">
+        <f t="shared" ref="K9:M9" si="3">E22</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="179">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="179">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="15">
+      <c r="C10" s="171" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="171">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E10" s="171">
+        <v>0</v>
+      </c>
+      <c r="F10" s="171">
+        <v>2E-3</v>
+      </c>
+      <c r="G10" s="171">
+        <v>0</v>
+      </c>
+      <c r="I10" s="172" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="177">
+        <f>D14</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K10" s="177">
+        <f t="shared" ref="K10:M10" si="4">E14</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="177">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="177">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="15">
+      <c r="C11" s="171" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="171">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="171">
+        <v>0</v>
+      </c>
+      <c r="F11" s="171">
+        <v>0</v>
+      </c>
+      <c r="G11" s="171">
+        <v>0</v>
+      </c>
+      <c r="I11" s="172" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="179">
+        <f>SUM(D18,D19)</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="K11" s="179">
+        <f t="shared" ref="K11:M11" si="5">SUM(E18,E19)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="L11" s="179">
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
+      </c>
+      <c r="M11" s="179">
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="15">
+      <c r="C12" s="171" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="171">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E12" s="171">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F12" s="171">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G12" s="171">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I12" s="172" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="177">
+        <f>SUM(D15,D16)</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K12" s="177">
+        <f t="shared" ref="K12:M12" si="6">SUM(E15,E16)</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="L12" s="177">
+        <f t="shared" si="6"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M12" s="177">
+        <f t="shared" si="6"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" ht="15">
+      <c r="C13" s="171" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="171">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E13" s="171">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F13" s="171">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G13" s="171">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="179">
+        <f>D17</f>
+        <v>0.2956342394276984</v>
+      </c>
+      <c r="K13" s="179">
+        <f t="shared" ref="K13:M13" si="7">E17</f>
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="L13" s="179">
+        <f t="shared" si="7"/>
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="M13" s="179">
+        <f t="shared" si="7"/>
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="15">
+      <c r="C14" s="171" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="171">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E14" s="171">
+        <v>0</v>
+      </c>
+      <c r="F14" s="171">
+        <v>0</v>
+      </c>
+      <c r="G14" s="171">
+        <v>0</v>
+      </c>
+      <c r="I14" s="172" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="177">
+        <f>SUM(D8:D9)</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="K14" s="177">
+        <f t="shared" ref="K14:M14" si="8">SUM(E8:E9)</f>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="L14" s="177">
+        <f t="shared" si="8"/>
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="M14" s="177">
+        <f t="shared" si="8"/>
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="15">
+      <c r="C15" s="171" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="171">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E15" s="171">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F15" s="171">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="171">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I15" s="172" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="179">
+        <f>SUM(D10:D13)</f>
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="K15" s="179">
+        <f t="shared" ref="K15:M15" si="9">SUM(E10:E13)</f>
+        <v>0.12100000000000001</v>
+      </c>
+      <c r="L15" s="179">
+        <f t="shared" si="9"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="M15" s="179">
+        <f t="shared" si="9"/>
+        <v>9.1000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" ht="11">
+      <c r="C16" s="171" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="171">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E16" s="171">
+        <v>1E-3</v>
+      </c>
+      <c r="F16" s="171">
+        <v>1E-3</v>
+      </c>
+      <c r="G16" s="171">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I16" s="172" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="11">
+      <c r="C17" s="171" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="171">
+        <v>0.2956342394276984</v>
+      </c>
+      <c r="E17" s="171">
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="F17" s="171">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G17" s="171">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I17" s="172" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="11">
+      <c r="C18" s="171" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="171">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="E18" s="171">
+        <v>2E-3</v>
+      </c>
+      <c r="F18" s="171">
+        <v>1E-3</v>
+      </c>
+      <c r="G18" s="171">
+        <v>1E-3</v>
+      </c>
+      <c r="I18" s="172" t="s">
+        <v>198</v>
+      </c>
+      <c r="J18" s="180">
+        <f>SUM(J6:J17)</f>
+        <v>1.0002342394276984</v>
+      </c>
+      <c r="K18" s="180">
+        <f t="shared" ref="K18:M18" si="10">SUM(K6:K17)</f>
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="L18" s="180">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="180">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="11">
+      <c r="C19" s="171" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="171">
+        <v>0</v>
+      </c>
+      <c r="E19" s="171">
+        <v>0</v>
+      </c>
+      <c r="F19" s="171">
+        <v>0</v>
+      </c>
+      <c r="G19" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="11">
+      <c r="C20" s="171" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="171">
+        <v>0</v>
+      </c>
+      <c r="E20" s="171">
+        <v>1E-3</v>
+      </c>
+      <c r="F20" s="171">
+        <v>0</v>
+      </c>
+      <c r="G20" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="11">
+      <c r="C21" s="171" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="171">
+        <v>0</v>
+      </c>
+      <c r="E21" s="171">
+        <v>0</v>
+      </c>
+      <c r="F21" s="171">
+        <v>0</v>
+      </c>
+      <c r="G21" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="11">
+      <c r="C22" s="171" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="171">
+        <v>0</v>
+      </c>
+      <c r="E22" s="171">
+        <v>0</v>
+      </c>
+      <c r="F22" s="171">
+        <v>0</v>
+      </c>
+      <c r="G22" s="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="I24" s="181"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/source_analyses/uk/2012/6_residences/6_residences_source_analysis.xlsx
+++ b/source_analyses/uk/2012/6_residences/6_residences_source_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="4" r:id="rId1"/>
@@ -433,9 +433,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Energy Consumption in the UK - 2013 update (downloaded from https://www.gov.uk/government/publications/energy-consumption-in-the-uk)</t>
-  </si>
-  <si>
     <t>Table 3.04: Domestic energy consumption by end use 1970 to 2012 (part)</t>
   </si>
   <si>
@@ -884,6 +881,9 @@
   <si>
     <t>Cooling data taken from ODYSSEE data base (Date of export: 2014-05-22). This data is proprietary.</t>
   </si>
+  <si>
+    <t>Energy Consumption in the UK - 2013 update (see http://refman.et-model.com/publications/1884)</t>
+  </si>
 </sst>
 </file>
 
@@ -892,10 +892,10 @@
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
@@ -1869,7 +1869,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2018,7 +2018,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2176,7 +2176,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2231,7 +2231,7 @@
     <xf numFmtId="43" fontId="10" fillId="2" borderId="22" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="10" fillId="2" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="10" fillId="2" borderId="15" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="22" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="27" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2247,8 +2247,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2284,7 +2284,7 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="33" xfId="69" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="34" xfId="70" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="33" xfId="70" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="28" fillId="8" borderId="33" xfId="71" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="28" fillId="8" borderId="33" xfId="71" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="62" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -2920,12 +2920,12 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3">
         <v>3600</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4">
         <v>41868</v>
@@ -2957,7 +2957,7 @@
   </sheetPr>
   <dimension ref="A2:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" thickBot="1">
@@ -3906,7 +3906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AP71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3922,22 +3922,22 @@
         <v>112</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:10" s="1" customFormat="1">
       <c r="B6" s="76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="91"/>
       <c r="D6" s="91"/>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="7" spans="2:10" s="1" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="109"/>
       <c r="D7" s="109"/>
@@ -3965,28 +3965,28 @@
     </row>
     <row r="8" spans="2:10" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1">
       <c r="B8" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="D8" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="E8" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="111" t="s">
+      <c r="F8" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="G8" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="H8" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="111" t="s">
+      <c r="I8" s="112" t="s">
         <v>127</v>
-      </c>
-      <c r="I8" s="112" t="s">
-        <v>128</v>
       </c>
       <c r="J8" s="119" t="s">
         <v>5</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="9" spans="2:10" s="1" customFormat="1">
       <c r="B9" s="120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="121" t="s">
         <v>2</v>
@@ -4024,7 +4024,7 @@
     <row r="10" spans="2:10" s="1" customFormat="1">
       <c r="B10" s="120"/>
       <c r="C10" s="121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="109">
         <v>69.823482864553014</v>
@@ -4051,7 +4051,7 @@
     <row r="11" spans="2:10" s="1" customFormat="1">
       <c r="B11" s="120"/>
       <c r="C11" s="121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="109">
         <v>7.1188592863873428</v>
@@ -4078,7 +4078,7 @@
     <row r="12" spans="2:10" s="1" customFormat="1">
       <c r="B12" s="120"/>
       <c r="C12" s="113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="113">
         <v>339.08011441366773</v>
@@ -4105,7 +4105,7 @@
     <row r="13" spans="2:10" s="1" customFormat="1">
       <c r="B13" s="120"/>
       <c r="C13" s="113" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="137">
         <v>0</v>
@@ -4132,7 +4132,7 @@
     <row r="14" spans="2:10" s="1" customFormat="1" ht="16" thickBot="1">
       <c r="B14" s="123"/>
       <c r="C14" s="113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="114">
         <v>339.08011441366773</v>
@@ -4158,28 +4158,28 @@
     </row>
     <row r="15" spans="2:10" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1">
       <c r="B15" s="124" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="D15" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="126" t="s">
+      <c r="E15" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="F15" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="126" t="s">
+      <c r="G15" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="126" t="s">
-        <v>126</v>
-      </c>
       <c r="H15" s="126" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="127" t="s">
         <v>135</v>
-      </c>
-      <c r="I15" s="127" t="s">
-        <v>136</v>
       </c>
       <c r="J15" s="128" t="s">
         <v>5</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="16" spans="2:10" s="1" customFormat="1">
       <c r="B16" s="129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="130" t="s">
         <v>2</v>
@@ -4224,7 +4224,7 @@
     <row r="17" spans="2:42" s="1" customFormat="1">
       <c r="B17" s="129"/>
       <c r="C17" s="130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="133">
         <f t="shared" si="0"/>
@@ -4258,7 +4258,7 @@
     <row r="18" spans="2:42" s="1" customFormat="1">
       <c r="B18" s="129"/>
       <c r="C18" s="130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="133">
         <f t="shared" si="0"/>
@@ -4292,7 +4292,7 @@
     <row r="19" spans="2:42" s="1" customFormat="1">
       <c r="B19" s="129"/>
       <c r="C19" s="131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="133">
         <f t="shared" si="0"/>
@@ -4326,7 +4326,7 @@
     <row r="20" spans="2:42" s="1" customFormat="1">
       <c r="B20" s="129"/>
       <c r="C20" s="131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="133">
         <f t="shared" si="0"/>
@@ -4360,7 +4360,7 @@
     <row r="21" spans="2:42" s="1" customFormat="1">
       <c r="B21" s="132"/>
       <c r="C21" s="131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="135">
         <f t="shared" si="0"/>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="23" spans="2:42" s="1" customFormat="1">
       <c r="B23" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="77"/>
       <c r="D23" s="77"/>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="29" spans="2:42">
       <c r="B29" s="153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" s="154"/>
       <c r="D29" s="154"/>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="30" spans="2:42">
       <c r="B30" s="153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="154"/>
       <c r="D30" s="154"/>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="33" spans="2:42" s="1" customFormat="1" ht="16" thickBot="1">
       <c r="B33" s="93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="43" spans="2:42" ht="20">
       <c r="B43" s="69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="72"/>
     </row>
@@ -5214,19 +5214,19 @@
     </row>
     <row r="46" spans="2:42" ht="15" customHeight="1">
       <c r="B46" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="158" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="158" t="s">
+      <c r="D46" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="141" t="s">
-        <v>164</v>
-      </c>
       <c r="E46" s="141" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F46" s="142" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="2:42" ht="15" customHeight="1">
@@ -5269,7 +5269,7 @@
         <v>0.19585801916451284</v>
       </c>
       <c r="G48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="15" customHeight="1">
@@ -5292,7 +5292,7 @@
         <v>0.1991518090538128</v>
       </c>
       <c r="G49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="15" customHeight="1">
@@ -5337,7 +5337,7 @@
     </row>
     <row r="52" spans="2:7" ht="15" customHeight="1">
       <c r="B52" s="161" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C52" s="162"/>
       <c r="D52" s="150"/>
@@ -5358,22 +5358,22 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="141" t="s">
-        <v>140</v>
-      </c>
       <c r="D55" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="141" t="s">
-        <v>154</v>
-      </c>
-      <c r="F55" s="142" t="s">
-        <v>156</v>
-      </c>
       <c r="G55" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -5396,12 +5396,12 @@
         <v>0.24486162576041723</v>
       </c>
       <c r="G56" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C57" s="143">
         <f>E39+F39</f>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" s="147">
         <f>SUM(C56:C58)</f>
@@ -5456,31 +5456,31 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" s="67"/>
       <c r="D61" s="68"/>
       <c r="E61" s="156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="141" t="s">
+      <c r="D62" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="142" t="s">
-        <v>141</v>
-      </c>
       <c r="E62" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C63" s="143">
         <f>R39</f>
@@ -5491,12 +5491,12 @@
         <v>4.9599999999999998E-2</v>
       </c>
       <c r="E63" s="155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="149" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="143">
         <f>J39+K39+L39+M39</f>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65" s="143">
         <f>P39+Q39/2</f>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C66" s="143">
         <f>S39+Q39/2</f>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="143">
         <f>V39</f>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C68" s="143">
         <f>W39+X39+Y39+AC39+AD39+AE39+AF39+AG39</f>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" s="65">
         <v>0</v>
@@ -5570,12 +5570,12 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="E69" s="189" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C70" s="143">
         <f>Z39+AJ39+AL39+AM39</f>
@@ -5586,7 +5586,7 @@
         <v>0.18160000000000001</v>
       </c>
       <c r="E70" s="189" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="2:5">
@@ -5639,7 +5639,7 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="182"/>
       <c r="D3" s="182"/>
@@ -5659,21 +5659,21 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="184" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="185" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="185" t="s">
+      <c r="E7" s="184" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="184" t="s">
         <v>219</v>
-      </c>
-      <c r="E7" s="184" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="184" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -5716,7 +5716,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="144">
         <v>327</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="144">
         <v>362</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" s="144">
         <v>166</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" s="144">
         <v>243</v>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" s="144">
         <v>394</v>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C16" s="144">
         <v>290</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" s="144">
         <v>317</v>
@@ -5853,24 +5853,24 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" s="144">
         <v>226</v>
       </c>
       <c r="E18" s="187" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C19" s="144">
         <v>56</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K19">
         <f>C18</f>
@@ -5909,13 +5909,13 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="144">
         <v>465</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" s="27"/>
       <c r="K22">
@@ -5925,7 +5925,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="144">
         <v>118</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="144">
         <v>199</v>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C25" s="144">
         <v>658</v>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C26" s="144">
         <v>240</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C27" s="144">
         <v>1505</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C28" s="144">
         <v>5249</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C29" s="144">
         <v>393</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="145" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C30" s="183">
         <v>945</v>
@@ -5989,20 +5989,20 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="188" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="185" t="s">
         <v>241</v>
-      </c>
-      <c r="C34" s="185" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="145" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C35" s="183">
         <v>18.100000000000001</v>
@@ -6039,7 +6039,7 @@
   <sheetData>
     <row r="2" spans="2:26" ht="15" thickBot="1">
       <c r="B2" s="163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="163"/>
       <c r="D2" s="163"/>
@@ -6053,7 +6053,7 @@
       <c r="L2" s="163"/>
       <c r="M2" s="163"/>
       <c r="N2" s="163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O2" s="163"/>
       <c r="P2" s="163"/>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="5" spans="2:26" ht="13">
       <c r="G5" s="166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H5" s="166"/>
       <c r="I5" s="166"/>
@@ -6085,21 +6085,21 @@
       <c r="G7" s="167"/>
       <c r="H7" s="168"/>
       <c r="I7" s="168" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="J7" s="168" t="s">
+      <c r="K7" s="168" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="168" t="s">
+      <c r="L7" s="168" t="s">
         <v>172</v>
-      </c>
-      <c r="L7" s="168" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:26" ht="11">
       <c r="C8" s="169" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H8" s="170"/>
       <c r="I8" s="170"/>
@@ -6110,21 +6110,21 @@
     <row r="9" spans="2:26" ht="11">
       <c r="H9" s="170"/>
       <c r="I9" s="170" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J9" s="170" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K9" s="170" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L9" s="170" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="2:26" ht="11">
       <c r="C10" s="164" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H10" s="170"/>
       <c r="I10" s="170"/>
@@ -6151,10 +6151,10 @@
     </row>
     <row r="11" spans="2:26" ht="15">
       <c r="C11" s="164" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="170" t="s">
         <v>177</v>
-      </c>
-      <c r="H11" s="170" t="s">
-        <v>178</v>
       </c>
       <c r="I11" s="171">
         <v>0.14000000000000001</v>
@@ -6190,10 +6190,10 @@
     </row>
     <row r="12" spans="2:26" ht="11">
       <c r="C12" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="170" t="s">
         <v>179</v>
-      </c>
-      <c r="H12" s="170" t="s">
-        <v>180</v>
       </c>
       <c r="I12" s="171">
         <v>0</v>
@@ -6214,10 +6214,10 @@
     </row>
     <row r="13" spans="2:26" ht="15">
       <c r="C13" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="170" t="s">
         <v>181</v>
-      </c>
-      <c r="H13" s="170" t="s">
-        <v>182</v>
       </c>
       <c r="I13" s="171">
         <v>0.30499999999999999</v>
@@ -6253,10 +6253,10 @@
     </row>
     <row r="14" spans="2:26" ht="15">
       <c r="C14" s="164" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="170" t="s">
         <v>183</v>
-      </c>
-      <c r="H14" s="170" t="s">
-        <v>184</v>
       </c>
       <c r="I14" s="171">
         <v>0.1</v>
@@ -6292,10 +6292,10 @@
     </row>
     <row r="15" spans="2:26" ht="15">
       <c r="C15" s="164" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="170" t="s">
         <v>185</v>
-      </c>
-      <c r="H15" s="170" t="s">
-        <v>186</v>
       </c>
       <c r="I15" s="171">
         <v>0.183</v>
@@ -6331,10 +6331,10 @@
     </row>
     <row r="16" spans="2:26" ht="15">
       <c r="C16" s="164" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="170" t="s">
         <v>187</v>
-      </c>
-      <c r="H16" s="170" t="s">
-        <v>188</v>
       </c>
       <c r="I16" s="171">
         <v>9.7000000000000003E-2</v>
@@ -6370,10 +6370,10 @@
     </row>
     <row r="17" spans="3:18" ht="15">
       <c r="C17" s="164" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="170" t="s">
         <v>189</v>
-      </c>
-      <c r="H17" s="170" t="s">
-        <v>190</v>
       </c>
       <c r="I17" s="171">
         <v>0.14000000000000001</v>
@@ -6409,10 +6409,10 @@
     </row>
     <row r="18" spans="3:18" ht="15">
       <c r="C18" s="164" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="170" t="s">
         <v>191</v>
-      </c>
-      <c r="H18" s="170" t="s">
-        <v>192</v>
       </c>
       <c r="I18" s="171">
         <v>2.8000000000000001E-2</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="19" spans="3:18" ht="15">
       <c r="H19" s="170" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I19" s="171">
         <v>3.7647482877513874E-3</v>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="20" spans="3:18" ht="15">
       <c r="H20" s="170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I20" s="171">
         <v>6.3423942769833528E-4</v>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="21" spans="3:18" ht="11">
       <c r="H21" s="170" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I21" s="171">
         <v>2.6264719233583143E-3</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="22" spans="3:18" ht="15">
       <c r="H22" s="170" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I22" s="171">
         <v>2.5032623413707734E-4</v>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="23" spans="3:18" ht="11">
       <c r="H23" s="170" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I23" s="171">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="172" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O23" s="180">
         <f>SUM(O11:O22)</f>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="24" spans="3:18" ht="11">
       <c r="H24" s="170" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I24" s="171">
         <v>0</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="25" spans="3:18" ht="11">
       <c r="H25" s="170" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I25" s="171">
         <v>0</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="26" spans="3:18" ht="11">
       <c r="H26" s="170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I26" s="171">
         <v>0</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="27" spans="3:18" ht="11">
       <c r="H27" s="170" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I27" s="171">
         <v>0</v>
@@ -6681,7 +6681,7 @@
     </row>
     <row r="28" spans="3:18" ht="11">
       <c r="H28" s="170" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I28" s="171">
         <v>0</v>
@@ -6698,7 +6698,7 @@
     </row>
     <row r="29" spans="3:18" ht="11">
       <c r="H29" s="170" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I29" s="171">
         <v>0</v>
@@ -6741,7 +6741,7 @@
   <sheetData>
     <row r="2" spans="2:21" ht="15" thickBot="1">
       <c r="B2" s="163" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="163"/>
       <c r="D2" s="163"/>
@@ -6750,7 +6750,7 @@
       <c r="G2" s="163"/>
       <c r="H2" s="163"/>
       <c r="I2" s="163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J2" s="163"/>
       <c r="K2" s="163"/>
@@ -6768,16 +6768,16 @@
     <row r="5" spans="2:21">
       <c r="C5" s="168"/>
       <c r="D5" s="168" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="168" t="s">
+      <c r="F5" s="168" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="168" t="s">
+      <c r="G5" s="168" t="s">
         <v>172</v>
-      </c>
-      <c r="G5" s="168" t="s">
-        <v>173</v>
       </c>
       <c r="I5" s="168"/>
       <c r="J5" s="168" t="str">
@@ -6799,7 +6799,7 @@
     </row>
     <row r="6" spans="2:21" ht="15">
       <c r="C6" s="171" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="171">
         <v>0.109</v>
@@ -6835,7 +6835,7 @@
     </row>
     <row r="7" spans="2:21" ht="11">
       <c r="C7" s="171" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="171">
         <v>1.0999999999999999E-2</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="C8" s="171" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="171">
         <v>0.30499999999999999</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="9" spans="2:21" ht="15">
       <c r="C9" s="171" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="171">
         <v>0</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="10" spans="2:21" ht="15">
       <c r="C10" s="171" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" s="171">
         <v>7.2999999999999995E-2</v>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="11" spans="2:21" ht="15">
       <c r="C11" s="171" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="171">
         <v>7.0000000000000001E-3</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="172" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J11" s="179">
         <f>SUM(D18,D19)</f>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="12" spans="2:21" ht="15">
       <c r="C12" s="171" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="171">
         <v>9.2999999999999999E-2</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="13" spans="2:21" ht="15">
       <c r="C13" s="171" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" s="171">
         <v>2.5999999999999999E-2</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="14" spans="2:21" ht="15">
       <c r="C14" s="171" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" s="171">
         <v>4.3999999999999997E-2</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="15" spans="2:21" ht="15">
       <c r="C15" s="171" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="171">
         <v>2.3E-2</v>
@@ -7143,7 +7143,7 @@
     </row>
     <row r="16" spans="2:21" ht="11">
       <c r="C16" s="171" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D16" s="171">
         <v>1.0999999999999999E-2</v>
@@ -7163,7 +7163,7 @@
     </row>
     <row r="17" spans="3:13" ht="11">
       <c r="C17" s="171" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="171">
         <v>0.2956342394276984</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="18" spans="3:13" ht="11">
       <c r="C18" s="171" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="171">
         <v>2.5999999999999999E-3</v>
@@ -7198,7 +7198,7 @@
         <v>1E-3</v>
       </c>
       <c r="I18" s="172" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J18" s="180">
         <f>SUM(J6:J17)</f>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="19" spans="3:13" ht="11">
       <c r="C19" s="171" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" s="171">
         <v>0</v>
@@ -7236,7 +7236,7 @@
     </row>
     <row r="20" spans="3:13" ht="11">
       <c r="C20" s="171" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D20" s="171">
         <v>0</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="21" spans="3:13" ht="11">
       <c r="C21" s="171" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="171">
         <v>0</v>
@@ -7270,7 +7270,7 @@
     </row>
     <row r="22" spans="3:13" ht="11">
       <c r="C22" s="171" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D22" s="171">
         <v>0</v>
